--- a/QUIZ.xlsx
+++ b/QUIZ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e18bbf0c30abb62/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e18bbf0c30abb62/Desktop/quiz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{420A4415-754A-4616-8072-51789ED45366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{420A4415-754A-4616-8072-51789ED45366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7F034BB-1CAE-422E-9A59-ACCE504B7F25}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{6ED34EAD-2942-49AB-A6F4-D947A7526729}"/>
   </bookViews>
@@ -2688,7 +2688,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2711,17 +2711,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3039,8 +3089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A58C99-9AB9-476C-A6FE-F93380D5DCE3}">
   <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3054,13 +3104,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>874</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -3074,13 +3124,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -3094,13 +3144,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>294</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3114,13 +3164,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>298</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -3134,13 +3184,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>302</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -3154,13 +3204,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>306</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -3174,13 +3224,13 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>310</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -3194,13 +3244,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>314</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -3214,13 +3264,13 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>318</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -3234,13 +3284,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>322</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -3254,13 +3304,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>326</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -3274,13 +3324,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>330</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -3294,13 +3344,13 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>334</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -3314,13 +3364,13 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>338</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -3334,13 +3384,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>342</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -3354,13 +3404,13 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>346</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -3374,13 +3424,13 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>350</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -3394,13 +3444,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>354</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -3414,13 +3464,13 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>358</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -3434,13 +3484,13 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>362</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -3454,13 +3504,13 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="4" t="s">
         <v>366</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -3474,13 +3524,13 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>370</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -3494,13 +3544,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="4" t="s">
         <v>374</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -3514,13 +3564,13 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>378</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -3534,13 +3584,13 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="4" t="s">
         <v>382</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -3554,13 +3604,13 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="4" t="s">
         <v>386</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -3574,13 +3624,13 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="4" t="s">
         <v>390</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -3594,13 +3644,13 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="4" t="s">
         <v>394</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -3614,13 +3664,13 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="4" t="s">
         <v>398</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -3634,13 +3684,13 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="4" t="s">
         <v>402</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -3654,13 +3704,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="4" t="s">
         <v>406</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -3674,13 +3724,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="4" t="s">
         <v>410</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -3694,13 +3744,13 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="4" t="s">
         <v>414</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -3714,13 +3764,13 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="4" t="s">
         <v>418</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -3734,13 +3784,13 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="4" t="s">
         <v>422</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -3754,13 +3804,13 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="4" t="s">
         <v>426</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -3774,13 +3824,13 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="4" t="s">
         <v>430</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -3794,13 +3844,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="4" t="s">
         <v>434</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -3814,13 +3864,13 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="4" t="s">
         <v>438</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -3834,13 +3884,13 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="4" t="s">
         <v>442</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -3854,13 +3904,13 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="4" t="s">
         <v>446</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -3874,13 +3924,13 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="4" t="s">
         <v>450</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -3894,13 +3944,13 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="4" t="s">
         <v>454</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -3914,13 +3964,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="4" t="s">
         <v>458</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -3934,13 +3984,13 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="4" t="s">
         <v>462</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -3954,13 +4004,13 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="4" t="s">
         <v>466</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -3974,13 +4024,13 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="4" t="s">
         <v>470</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -3994,13 +4044,13 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="4" t="s">
         <v>474</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -4014,13 +4064,13 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="4" t="s">
         <v>478</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -4034,13 +4084,13 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="4" t="s">
         <v>482</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -4054,13 +4104,13 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="4" t="s">
         <v>486</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -4074,13 +4124,13 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="4" t="s">
         <v>490</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -4094,13 +4144,13 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="4" t="s">
         <v>494</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -4114,13 +4164,13 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="4" t="s">
         <v>498</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -4134,13 +4184,13 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="4" t="s">
         <v>502</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -4154,13 +4204,13 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="4" t="s">
         <v>506</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -4174,13 +4224,13 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="4" t="s">
         <v>510</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -4194,13 +4244,13 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="4" t="s">
         <v>514</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -4214,13 +4264,13 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="4" t="s">
         <v>518</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -4234,13 +4284,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="4" t="s">
         <v>522</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -4254,13 +4304,13 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="4" t="s">
         <v>526</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -4274,13 +4324,13 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="4" t="s">
         <v>530</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -4294,13 +4344,13 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="4" t="s">
         <v>534</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -4314,13 +4364,13 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="4" t="s">
         <v>538</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -4334,13 +4384,13 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="4" t="s">
         <v>542</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -4354,13 +4404,13 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="4" t="s">
         <v>546</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -4374,13 +4424,13 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="4" t="s">
         <v>550</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -4394,13 +4444,13 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="4" t="s">
         <v>554</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -4414,13 +4464,13 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="4" t="s">
         <v>558</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -4434,13 +4484,13 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="4" t="s">
         <v>562</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -4454,13 +4504,13 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="4" t="s">
         <v>566</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -4474,13 +4524,13 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="4" t="s">
         <v>570</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -4494,13 +4544,13 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="4" t="s">
         <v>574</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -4514,13 +4564,13 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="4" t="s">
         <v>578</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -4534,13 +4584,13 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="4" t="s">
         <v>582</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -4554,13 +4604,13 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="4" t="s">
         <v>586</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -4574,13 +4624,13 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="4" t="s">
         <v>590</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -4594,13 +4644,13 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="4" t="s">
         <v>594</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -4614,13 +4664,13 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="4" t="s">
         <v>598</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -4634,13 +4684,13 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="4" t="s">
         <v>602</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -4654,13 +4704,13 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="4" t="s">
         <v>606</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -4674,13 +4724,13 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="4" t="s">
         <v>610</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -4694,13 +4744,13 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="4" t="s">
         <v>614</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -4714,13 +4764,13 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="4" t="s">
         <v>618</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -4734,13 +4784,13 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="4" t="s">
         <v>622</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -4754,13 +4804,13 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="4" t="s">
         <v>626</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -4774,13 +4824,13 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="4" t="s">
         <v>630</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -4794,13 +4844,13 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="4" t="s">
         <v>634</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -4814,13 +4864,13 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="4" t="s">
         <v>638</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -4834,13 +4884,13 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="4" t="s">
         <v>642</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -4854,13 +4904,13 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="4" t="s">
         <v>646</v>
       </c>
       <c r="D91" s="1" t="s">
@@ -4874,13 +4924,13 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="4" t="s">
         <v>650</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -4894,13 +4944,13 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="4" t="s">
         <v>654</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -4914,13 +4964,13 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="4" t="s">
         <v>658</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -4934,13 +4984,13 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="4" t="s">
         <v>662</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -4954,13 +5004,13 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="4" t="s">
         <v>666</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -4974,13 +5024,13 @@
       </c>
     </row>
     <row r="97" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="4" t="s">
         <v>670</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -4994,13 +5044,13 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="4" t="s">
         <v>674</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -5014,13 +5064,13 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="4" t="s">
         <v>678</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -5034,13 +5084,13 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="4" t="s">
         <v>682</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -5054,13 +5104,13 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="4" t="s">
         <v>686</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -5074,13 +5124,13 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="4" t="s">
         <v>690</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -5094,13 +5144,13 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="4" t="s">
         <v>694</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -5114,13 +5164,13 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="4" t="s">
         <v>698</v>
       </c>
       <c r="D104" s="1" t="s">
@@ -5134,13 +5184,13 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="4" t="s">
         <v>702</v>
       </c>
       <c r="D105" s="1" t="s">
@@ -5154,13 +5204,13 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="4" t="s">
         <v>706</v>
       </c>
       <c r="D106" s="1" t="s">
@@ -5174,13 +5224,13 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="4" t="s">
         <v>710</v>
       </c>
       <c r="D107" s="1" t="s">
@@ -5194,13 +5244,13 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="4" t="s">
         <v>714</v>
       </c>
       <c r="D108" s="1" t="s">
@@ -5214,13 +5264,13 @@
       </c>
     </row>
     <row r="109" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="4" t="s">
         <v>718</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -5234,13 +5284,13 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="4" t="s">
         <v>722</v>
       </c>
       <c r="D110" s="1" t="s">
@@ -5254,13 +5304,13 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="4" t="s">
         <v>726</v>
       </c>
       <c r="D111" s="1" t="s">
@@ -5274,13 +5324,13 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="4" t="s">
         <v>730</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -5294,13 +5344,13 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="4" t="s">
         <v>734</v>
       </c>
       <c r="D113" s="1" t="s">
@@ -5314,13 +5364,13 @@
       </c>
     </row>
     <row r="114" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="4" t="s">
         <v>738</v>
       </c>
       <c r="D114" s="1" t="s">
@@ -5334,13 +5384,13 @@
       </c>
     </row>
     <row r="115" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="4" t="s">
         <v>742</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -5354,13 +5404,13 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="4" t="s">
         <v>746</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -5374,13 +5424,13 @@
       </c>
     </row>
     <row r="117" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="4" t="s">
         <v>750</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -5394,13 +5444,13 @@
       </c>
     </row>
     <row r="118" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="4" t="s">
         <v>754</v>
       </c>
       <c r="D118" s="1" t="s">
@@ -5414,13 +5464,13 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="4" t="s">
         <v>758</v>
       </c>
       <c r="D119" s="1" t="s">
@@ -5434,13 +5484,13 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="4" t="s">
         <v>762</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -5454,13 +5504,13 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="4" t="s">
         <v>766</v>
       </c>
       <c r="D121" s="1" t="s">
@@ -5474,13 +5524,13 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="4" t="s">
         <v>770</v>
       </c>
       <c r="D122" s="1" t="s">
@@ -5494,13 +5544,13 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="4" t="s">
         <v>774</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -5514,13 +5564,13 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="4" t="s">
         <v>778</v>
       </c>
       <c r="D124" s="1" t="s">
@@ -5534,13 +5584,13 @@
       </c>
     </row>
     <row r="125" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="4" t="s">
         <v>782</v>
       </c>
       <c r="D125" s="1" t="s">
@@ -5554,13 +5604,13 @@
       </c>
     </row>
     <row r="126" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="4" t="s">
         <v>786</v>
       </c>
       <c r="D126" s="1" t="s">
@@ -5574,13 +5624,13 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="4" t="s">
         <v>790</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -5594,13 +5644,13 @@
       </c>
     </row>
     <row r="128" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="4" t="s">
         <v>794</v>
       </c>
       <c r="D128" s="1" t="s">
@@ -5614,13 +5664,13 @@
       </c>
     </row>
     <row r="129" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="4" t="s">
         <v>798</v>
       </c>
       <c r="D129" s="1" t="s">
@@ -5634,13 +5684,13 @@
       </c>
     </row>
     <row r="130" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="4" t="s">
         <v>802</v>
       </c>
       <c r="D130" s="1" t="s">
@@ -5654,13 +5704,13 @@
       </c>
     </row>
     <row r="131" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="4" t="s">
         <v>806</v>
       </c>
       <c r="D131" s="1" t="s">
@@ -5674,13 +5724,13 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="4" t="s">
         <v>810</v>
       </c>
       <c r="D132" s="1" t="s">
@@ -5694,13 +5744,13 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="4" t="s">
         <v>814</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -5714,13 +5764,13 @@
       </c>
     </row>
     <row r="134" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="4" t="s">
         <v>818</v>
       </c>
       <c r="D134" s="1" t="s">
@@ -5734,13 +5784,13 @@
       </c>
     </row>
     <row r="135" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="4" t="s">
         <v>822</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -5754,13 +5804,13 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="4" t="s">
         <v>826</v>
       </c>
       <c r="D136" s="1" t="s">
@@ -5774,13 +5824,13 @@
       </c>
     </row>
     <row r="137" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="4" t="s">
         <v>830</v>
       </c>
       <c r="D137" s="1" t="s">
@@ -5794,13 +5844,13 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="4" t="s">
         <v>834</v>
       </c>
       <c r="D138" s="1" t="s">
@@ -5814,13 +5864,13 @@
       </c>
     </row>
     <row r="139" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="4" t="s">
         <v>838</v>
       </c>
       <c r="D139" s="1" t="s">
@@ -5834,13 +5884,13 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="4" t="s">
         <v>842</v>
       </c>
       <c r="D140" s="1" t="s">
@@ -5854,13 +5904,13 @@
       </c>
     </row>
     <row r="141" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="4" t="s">
         <v>846</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -5874,13 +5924,13 @@
       </c>
     </row>
     <row r="142" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="4" t="s">
         <v>850</v>
       </c>
       <c r="D142" s="1" t="s">
@@ -5894,13 +5944,13 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="4" t="s">
         <v>854</v>
       </c>
       <c r="D143" s="1" t="s">
@@ -5914,13 +5964,13 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="4" t="s">
         <v>858</v>
       </c>
       <c r="D144" s="1" t="s">
@@ -5934,13 +5984,13 @@
       </c>
     </row>
     <row r="145" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="4" t="s">
         <v>862</v>
       </c>
       <c r="D145" s="1" t="s">
@@ -5954,13 +6004,13 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="4" t="s">
         <v>866</v>
       </c>
       <c r="D146" s="1" t="s">
@@ -5974,13 +6024,13 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="4" t="s">
         <v>870</v>
       </c>
       <c r="D147" s="1" t="s">

--- a/QUIZ.xlsx
+++ b/QUIZ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e18bbf0c30abb62/Desktop/quiz/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adm\OneDrive\Desktop\quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{420A4415-754A-4616-8072-51789ED45366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7F034BB-1CAE-422E-9A59-ACCE504B7F25}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8970D2B3-3B1F-4783-88B8-D2393EAE3F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{6ED34EAD-2942-49AB-A6F4-D947A7526729}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="1449">
   <si>
     <t>Pergunta</t>
   </si>
@@ -45,231 +45,111 @@
     <t>Como Meishu-Sama define o pragmatismo?</t>
   </si>
   <si>
-    <t>Meishu-Sama afirma: "Pragmatismo significa filosofia em ação; porém, eu proponho alterar para religião em ação"【5】.</t>
-  </si>
-  <si>
     <t>O que diferencia a religião viva da morta?</t>
   </si>
   <si>
-    <t>"Religião viva é aquela que está associada ao cotidiano, e a morta é exatamente o oposto"【5】.</t>
-  </si>
-  <si>
     <t>Por que Meishu-Sama considera sua religião viva?</t>
   </si>
   <si>
-    <t>"Ela respeita a História, mas não se prende a isso: avança no tempo seguindo diretrizes próprias, de acordo com os desígnios de Deus"【5】.</t>
-  </si>
-  <si>
     <t>Quais atividades práticas a religião realiza?</t>
   </si>
   <si>
-    <t>"Desenvolve atualmente projetos que abrangem a reforma da agricultura e da medicina e ainda aponta todas as falhas da cultura, adotando, como princípio norteador, o ideal de uma nova cultura"【5】.</t>
-  </si>
-  <si>
     <t>Qual a missão da sua obra para a sociedade?</t>
   </si>
   <si>
-    <t>"Sua finalidade é criar uma sociedade alegre e sem preocupações"【5】.</t>
-  </si>
-  <si>
     <t>Qual a visão de Meishu-Sama sobre as religiões antigas?</t>
   </si>
   <si>
-    <t>"As religiões antigas geralmente contam com espantoso número de adeptos, mas estes, na maioria, são indivíduos de pouca cultura"【5】.</t>
-  </si>
-  <si>
     <t>Qual crítica faz às novas religiões excêntricas?</t>
   </si>
   <si>
-    <t>"Entre as religiões novas, há algumas que dão uma nova roupagem..." (resposta parcial no snippet)</t>
-  </si>
-  <si>
     <t>O que falta para unificar as religiões?</t>
   </si>
   <si>
-    <t>"Uma religião grandiosa e ultrarreligiosa a ponto de toda a humanidade crer nela"【5】.</t>
-  </si>
-  <si>
     <t>Qual a missão da Igreja Messiânica?</t>
   </si>
   <si>
-    <t>"Mostrar como elaborar o plano, o projeto para a construção deste mundo"【5】.</t>
-  </si>
-  <si>
     <t>O que Meishu-Sama escreve?</t>
   </si>
   <si>
-    <t>"Escrevo a Verdade"【5】.</t>
-  </si>
-  <si>
     <t>Como as pessoas sem religião veem Deus?</t>
   </si>
   <si>
-    <t>"Reagem negando a existência das divindades e pedindo que provemos tal existência com toda a clareza"【5】.</t>
-  </si>
-  <si>
     <t>Por que muitos não creem?</t>
   </si>
   <si>
-    <t>"Porque muitas das religiões são anticientíficas, sendo raras as que não cheiram a superstição"【5】.</t>
-  </si>
-  <si>
     <t>O que demonstra a existência de Deus na Igreja Messiânica?</t>
   </si>
   <si>
-    <t>"Os inúmeros relatos de milagres e graças alcançados pelos nossos fiéis"【5】.</t>
-  </si>
-  <si>
     <t>Como os fiéis relatam suas primeiras experiências?</t>
   </si>
   <si>
-    <t>"Começaram a receber Johrei cheios de desconfiança"【5】.</t>
-  </si>
-  <si>
     <t>O que ocorre após receberem Johrei?</t>
   </si>
   <si>
-    <t>"Sentindo-se mais dispostos no dia seguinte, optaram por persistir um pouco mais e melhoraram rapidamente"【5】.</t>
-  </si>
-  <si>
-    <t>Como os intelectuais tratam os milagres?</t>
-  </si>
-  <si>
-    <t>"Chamam a isso de superstição..." (resposta parcial no snippet)</t>
-  </si>
-  <si>
     <t>Como surgem as relações humanas?</t>
   </si>
   <si>
-    <t>"Tudo o que existe no mundo material tem sua origem no mundo espiritual"【17】.</t>
-  </si>
-  <si>
     <t>O que ocorre no mundo espiritual antes da concretização no mundo material?</t>
   </si>
   <si>
-    <t>"No mundo espiritual, o que está predestinado se une, criando o elo"【17】.</t>
-  </si>
-  <si>
     <t>Como é estabelecida a relação entre marido e mulher?</t>
   </si>
   <si>
-    <t>"É o resultado da união de seus elos espirituais"【17】.</t>
-  </si>
-  <si>
     <t>Como surgem os elos familiares?</t>
   </si>
   <si>
-    <t>"Os laços de sangue resultam dos elos espirituais"【17】.</t>
-  </si>
-  <si>
     <t>Como se formam as relações de amizade?</t>
   </si>
   <si>
-    <t>"Elas também são estabelecidas através de elos espirituais"【17】.</t>
-  </si>
-  <si>
     <t>Por que surgem inimizades?</t>
   </si>
   <si>
-    <t>"Porque há elos espirituais de inimigos do passado"【17】.</t>
-  </si>
-  <si>
     <t>Como devemos compreender os relacionamentos humanos?</t>
   </si>
   <si>
-    <t>"Todos eles são determinados pelos elos espirituais"【17】.</t>
-  </si>
-  <si>
     <t>O que é o mundo desconhecido?</t>
   </si>
   <si>
-    <t>"É o mundo que a ciência atual ainda não consegue compreender"【17】.</t>
-  </si>
-  <si>
     <t>Como a ciência o considera?</t>
   </si>
   <si>
-    <t>"Considera-o inexistente"【17】.</t>
-  </si>
-  <si>
-    <t>Qual a consequência de ignorá-lo?</t>
-  </si>
-  <si>
-    <t>"Com isso, a ciência materialista se tornou..." (resposta parcial no snippet)</t>
-  </si>
-  <si>
     <t>O que a Igreja Messiânica objetiva?</t>
   </si>
   <si>
-    <t>"Eliminar da humanidade toda espécie de medo"【17】.</t>
-  </si>
-  <si>
     <t>Quais são os três grandes medos?</t>
   </si>
   <si>
-    <t>"A doença, a pobreza e o conflito"【17】.</t>
-  </si>
-  <si>
     <t>Qual é o medo mais ameaçador?</t>
   </si>
   <si>
-    <t>"O medo da doença"【17】.</t>
-  </si>
-  <si>
     <t>Como a doença causa pobreza?</t>
   </si>
   <si>
-    <t>"A doença leva a grandes despesas e perda de trabalho"【17】.</t>
-  </si>
-  <si>
     <t>Qual medo atinge a humanidade moderna?</t>
   </si>
   <si>
-    <t>"O medo da guerra"【17】.</t>
-  </si>
-  <si>
     <t>Qual a esperança de Meishu-Sama?</t>
   </si>
   <si>
-    <t>"Com a chegada do Paraíso Terrestre, esses sofrimentos terão fim"【17】.</t>
-  </si>
-  <si>
     <t>Qual é a verdadeira missão da religião?</t>
   </si>
   <si>
-    <t>"Eliminar os três grandes medos da humanidade"【17】.</t>
-  </si>
-  <si>
     <t>Religião e fé são a mesma coisa?</t>
   </si>
   <si>
-    <t>"Na verdade, há muitos aspectos em que uma e outra se diferenciam"【17】.</t>
-  </si>
-  <si>
     <t>O que representa a fé sem religião?</t>
   </si>
   <si>
-    <t>"É a crença cega em ídolos ou objetos"【17】.</t>
-  </si>
-  <si>
     <t>Existem níveis nas religiões?</t>
   </si>
   <si>
-    <t>"Sim, há religiões de nível superior, médio e inferior"【17】.</t>
-  </si>
-  <si>
     <t>Qual o nível superior de religião?</t>
   </si>
   <si>
-    <t>"Aquela dirigida pelo Supremo Deus"【17】.</t>
-  </si>
-  <si>
     <t>Como se manifesta a força dessas religiões superiores?</t>
   </si>
   <si>
-    <t>"Por meio de milagres notáveis"【17】.</t>
-  </si>
-  <si>
     <t>O que o ser humano deve buscar constantemente, aprendendo com a Grande Natureza?</t>
   </si>
   <si>
@@ -303,9 +183,6 @@
     <t>Que tipo de assuntos as pessoas retrógradas geralmente se limitam a falar?</t>
   </si>
   <si>
-    <t>Elas se limitam a assuntos triviais, não falando de religião, de política, de filosofia e muito menos... (resposta parcial no snippet)</t>
-  </si>
-  <si>
     <t>Por que as pessoas que possuem fé "shojo" não conseguem expandir a fé?</t>
   </si>
   <si>
@@ -333,9 +210,6 @@
     <t>O que acontecerá se os fiéis mantiverem uma atitude "daijo" e tratarem as pessoas com amor sem discriminá-las?</t>
   </si>
   <si>
-    <t>É natural que qualquer um se sinta bem ao se relacionar com nossos fiéis, e passem a se reunir com... (resposta parcial no snippet)</t>
-  </si>
-  <si>
     <t>Dentre as inteligências, cite as 3 mais elevadas e as 3 de nível mais baixo, segundo o ensinamento “Luz da inteligência”.</t>
   </si>
   <si>
@@ -369,9 +243,6 @@
     <t>Qual a causa dos acidentes, segundo Meishu-Sama?</t>
   </si>
   <si>
-    <t>É um problema relacionado ao sistema nervoso do homem (falta de agilidade/prontidão de escapar de um perigo).</t>
-  </si>
-  <si>
     <t>Dê exemplos de tratamentos médicos que solidificam as toxinas, citados no ensinamento “A verdadeira causa das doenças”.</t>
   </si>
   <si>
@@ -447,9 +318,6 @@
     <t>O que significa a expressão “livre e desimpedido”?</t>
   </si>
   <si>
-    <t>Significa Liberdade total, sem... (resposta parcial no snippet)</t>
-  </si>
-  <si>
     <t>Qual a condição essencial para nos tornarmos felizes, conforme consta no Ensinamento “Felicidade”?</t>
   </si>
   <si>
@@ -609,9 +477,6 @@
     <t>Qual a principal causa da subdivisão da religião em ramificações, segundo o Ensinamento “Religião e ramificações”?</t>
   </si>
   <si>
-    <t>Está na dificuldade da interpretação dos ensinamentos (escrituras).</t>
-  </si>
-  <si>
     <t>Quais são as “três calamidades maiores” e as “três calamidades menores”, mencionadas por Meishu-Sama em um de seus Ensinamentos?</t>
   </si>
   <si>
@@ -627,9 +492,6 @@
     <t>Qual a finalidade da criação do homem por Deus, revelada a Meishu-Sama em um de seus Ensinamentos?</t>
   </si>
   <si>
-    <t>É para... (resposta parcial no snippet)</t>
-  </si>
-  <si>
     <t>Fale a respeito do sonho criado pelo espírito guardião.</t>
   </si>
   <si>
@@ -669,9 +531,6 @@
     <t>Segundo o ensinamento Religião e obstáculo: “Quanto mais promissor for o futuro de uma religião e quanto mais notável for o seu valor, maiores serão os obstáculos que ela enfrentará”. Por quê?</t>
   </si>
   <si>
-    <t>Porque os espíritos malignos lutam incessantemente contra as divindades do bem (que criam uma sociedade sem sofrimento).</t>
-  </si>
-  <si>
     <t>Qual a diferença entre encosto de espírito desencarnado para o encosto de um espírito de pessoa viva?</t>
   </si>
   <si>
@@ -684,9 +543,6 @@
     <t>Força pessoal de cada um (aura) e Força de terceiros (espírito guardião).</t>
   </si>
   <si>
-    <t>Sob o ponto de vista espiritual, qual a causa da doença psíquica?</t>
-  </si>
-  <si>
     <t>Qual o motivo pelo qual o Japão sofreu grande purificação por ocasião da derrota da 2ª Guerra Mundial, segundo Ensinamento de Meishu-Sama?</t>
   </si>
   <si>
@@ -741,18 +597,9 @@
     <t>É necessário que o homem aprenda a se analisar objetivamente, isto é, crie em si “uma segunda pessoa” que o veja e critique.</t>
   </si>
   <si>
-    <t>Qual o segredo para aumentar a largura da Aura, ensinado por Meishu-Sama?</t>
-  </si>
-  <si>
-    <t>Pensar no bem do próximo (resposta parcial do gabarito).</t>
-  </si>
-  <si>
     <t>Cite um exemplo em que deve ser obedecida a Lei da Ordem, conforme o ensinamento “Ordem”.</t>
   </si>
   <si>
-    <t>Moradia (pais no andar superior) ou Disposição de pessoas à mesa (chefe no lugar de honra).</t>
-  </si>
-  <si>
     <t>Com base no aspecto religioso, o que significa o ensinamento “A Parábola da Espada”, citado por Meishu-Sama.</t>
   </si>
   <si>
@@ -852,9 +699,6 @@
     <t>Qual o motivo dos fundadores de religiões antigas não terem dado importância para Arte?</t>
   </si>
   <si>
-    <t>Porque o mundo se encontrava em condição infernal (resposta parcial do gabarito).</t>
-  </si>
-  <si>
     <t>Qual a base da psicologia do criminoso, que precisa ser destruída para solucionar o problema da prática de crimes, citada por Meishu-Sama?</t>
   </si>
   <si>
@@ -1086,18 +930,6 @@
     <t>Sua condição piorou, levando-os a duvidar da eficácia do Johrei.</t>
   </si>
   <si>
-    <t>Tentam provar sua validade por meio de métodos científicos rigorosos.</t>
-  </si>
-  <si>
-    <t>Aceitam como uma manifestação da fé, mas negam a intervenção divina.</t>
-  </si>
-  <si>
-    <t>Consideram-nos como um fenômeno psicológico de cura pela sugestão.</t>
-  </si>
-  <si>
-    <t>Veem-nos como uma forma de arte e manifestação cultural.</t>
-  </si>
-  <si>
     <t>São formadas pela convivência social e interesses em comum.</t>
   </si>
   <si>
@@ -1206,18 +1038,6 @@
     <t>Considera-o como algo que será provado em breve.</t>
   </si>
   <si>
-    <t>A ciência se tornou muito mais pragmática e eficiente em suas descobertas.</t>
-  </si>
-  <si>
-    <t>O homem passou a dar mais valor aos aspectos materiais da vida.</t>
-  </si>
-  <si>
-    <t>A fé se fortaleceu como o único caminho para a verdade.</t>
-  </si>
-  <si>
-    <t>A ciência se tornou mais aberta ao estudo das religiões.</t>
-  </si>
-  <si>
     <t>Promover o desenvolvimento econômico de países pobres.</t>
   </si>
   <si>
@@ -2202,18 +2022,6 @@
     <t>Força do sol e Força da lua.</t>
   </si>
   <si>
-    <t>Falha genética e hereditária.</t>
-  </si>
-  <si>
-    <t>Uso excessivo de medicamentos.</t>
-  </si>
-  <si>
-    <t>Falta de inteligência e sabedoria.</t>
-  </si>
-  <si>
-    <t>Rigidez e formalidade na fé.</t>
-  </si>
-  <si>
     <t>Porque o Japão não acreditava em Deus e era materialista.</t>
   </si>
   <si>
@@ -2322,18 +2130,6 @@
     <t>Devemos nos isolar da sociedade para não ser influenciado.</t>
   </si>
   <si>
-    <t>Usar roupas coloridas e brilhantes.</t>
-  </si>
-  <si>
-    <t>Fazer exercícios físicos e tomar sol.</t>
-  </si>
-  <si>
-    <t>Acumular títulos acadêmicos e diplomas.</t>
-  </si>
-  <si>
-    <t>Fazer longos jejuns e sacrifícios.</t>
-  </si>
-  <si>
     <t>A ordem de nascimento dos filhos na família.</t>
   </si>
   <si>
@@ -2659,6 +2455,1932 @@
   </si>
   <si>
     <t>Alternativa ERRADA</t>
+  </si>
+  <si>
+    <t>Estabelecer o Paraíso Terrestre, eliminando doença, pobreza e conflito.</t>
+  </si>
+  <si>
+    <t>Criar um movimento artístico global</t>
+  </si>
+  <si>
+    <t>Expandir apenas no Japão</t>
+  </si>
+  <si>
+    <t>Focar em meditação profunda</t>
+  </si>
+  <si>
+    <t>Criar cultura espiritual separada da vida</t>
+  </si>
+  <si>
+    <t>Transição para o Mundo da Luz</t>
+  </si>
+  <si>
+    <t>Castigo definitivo</t>
+  </si>
+  <si>
+    <t>Fim físico da Terra</t>
+  </si>
+  <si>
+    <t>Ascensão de poucos escolhidos</t>
+  </si>
+  <si>
+    <t>Fenômeno astronômico</t>
+  </si>
+  <si>
+    <t>Promover felicidade verdadeira</t>
+  </si>
+  <si>
+    <t>Focar no progresso econômico</t>
+  </si>
+  <si>
+    <t>Cultuar progresso material</t>
+  </si>
+  <si>
+    <t>Rejeitar beleza</t>
+  </si>
+  <si>
+    <t>Basear-se só na ciência</t>
+  </si>
+  <si>
+    <t>Civilização é externa/material e cultura é interna/espiritual</t>
+  </si>
+  <si>
+    <t>Civilização é lei, cultura é arte</t>
+  </si>
+  <si>
+    <t>Cultura é tecnologia</t>
+  </si>
+  <si>
+    <t>Civilização é fase inicial</t>
+  </si>
+  <si>
+    <t>Cultura é costumes populares</t>
+  </si>
+  <si>
+    <t>Porque o mundo está interligado</t>
+  </si>
+  <si>
+    <t>Para competir com ciência</t>
+  </si>
+  <si>
+    <t>Para dominar globalmente</t>
+  </si>
+  <si>
+    <t>Para ter supremacia</t>
+  </si>
+  <si>
+    <t>Para impor doutrina única</t>
+  </si>
+  <si>
+    <t>Ver humanidade como irmãos</t>
+  </si>
+  <si>
+    <t>Abandonar cultura de origem</t>
+  </si>
+  <si>
+    <t>Adotar valores orientais</t>
+  </si>
+  <si>
+    <t>Romper com tradições</t>
+  </si>
+  <si>
+    <t>Ser viajado</t>
+  </si>
+  <si>
+    <t>Nuvens espirituais acumuladas</t>
+  </si>
+  <si>
+    <t>Má política</t>
+  </si>
+  <si>
+    <t>Falta de habilidade</t>
+  </si>
+  <si>
+    <t>Karma imutável</t>
+  </si>
+  <si>
+    <t>Falta de recursos naturais</t>
+  </si>
+  <si>
+    <t>Porque ignora o espírito</t>
+  </si>
+  <si>
+    <t>Porque explica pelo sobrenatural</t>
+  </si>
+  <si>
+    <t>Métodos antigos</t>
+  </si>
+  <si>
+    <t>Mistura com religião</t>
+  </si>
+  <si>
+    <t>Desconhece fenômenos</t>
+  </si>
+  <si>
+    <t>Eliminar toxinas/impurezas</t>
+  </si>
+  <si>
+    <t>Castigar</t>
+  </si>
+  <si>
+    <t>Causar sofrimento</t>
+  </si>
+  <si>
+    <t>Desenvolver resistência</t>
+  </si>
+  <si>
+    <t>Testar fé</t>
+  </si>
+  <si>
+    <t>Integrar fé à vida cotidiana</t>
+  </si>
+  <si>
+    <t>Rituais rigorosos</t>
+  </si>
+  <si>
+    <t>Devoção cega</t>
+  </si>
+  <si>
+    <t>Afastamento social</t>
+  </si>
+  <si>
+    <t>Sofrimento como via central</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finalidade da IMM segundo Meishu-Sama</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O que é o Juízo Final segundo Meishu-Sama?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Característica da cultura ideal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Diferença entre civilização e cultura</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Por que a religião deve acompanhar o avanço mundial?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Significado de ser universal</t>
+  </si>
+  <si>
+    <t>Qual a causa da pobreza?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Por que a ciência cria superstições?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Objetivo da purificação</t>
+  </si>
+  <si>
+    <t>Essência da fé messiânica</t>
+  </si>
+  <si>
+    <t>Aquilo que corresponde à Lei de Deus</t>
+  </si>
+  <si>
+    <t>Opinião pessoal</t>
+  </si>
+  <si>
+    <t>Conhecimento científico</t>
+  </si>
+  <si>
+    <t>Tradição cultural</t>
+  </si>
+  <si>
+    <t>Ideologia dominante</t>
+  </si>
+  <si>
+    <t>Aquilo que reflete a harmonia divina</t>
+  </si>
+  <si>
+    <t>Apenas estética humana</t>
+  </si>
+  <si>
+    <t>Preferência cultural</t>
+  </si>
+  <si>
+    <t>Arte moderna</t>
+  </si>
+  <si>
+    <t>Beleza física</t>
+  </si>
+  <si>
+    <t>Colocar a matéria acima do espírito</t>
+  </si>
+  <si>
+    <t>Rejeitar totalmente a ciência</t>
+  </si>
+  <si>
+    <t>Acreditar apenas no sobrenatural</t>
+  </si>
+  <si>
+    <t>Idolatrar tecnologia</t>
+  </si>
+  <si>
+    <t>Desprezar moralidade</t>
+  </si>
+  <si>
+    <t>Compreender que o espírito é o principal</t>
+  </si>
+  <si>
+    <t>Recusar progresso material</t>
+  </si>
+  <si>
+    <t>Abandonar responsabilidades</t>
+  </si>
+  <si>
+    <t>Negar sentimentos</t>
+  </si>
+  <si>
+    <t>Praticar ascetismo extremo</t>
+  </si>
+  <si>
+    <t>Espírito é causa; matéria é efeito</t>
+  </si>
+  <si>
+    <t>Matéria é eterna</t>
+  </si>
+  <si>
+    <t>Espírito depende do corpo</t>
+  </si>
+  <si>
+    <t>Ambos são iguais</t>
+  </si>
+  <si>
+    <t>Espírito é produto químico</t>
+  </si>
+  <si>
+    <t>Para que seu conteúdo se tornasse claro e pudesse ser corrigido</t>
+  </si>
+  <si>
+    <t>Porque Deus perdeu o controle</t>
+  </si>
+  <si>
+    <t>Por castigo inevitável</t>
+  </si>
+  <si>
+    <t>Por evolução do acaso</t>
+  </si>
+  <si>
+    <t>Por mera ignorância humana</t>
+  </si>
+  <si>
+    <t>Deus iniciou reforma espiritual da humanidade</t>
+  </si>
+  <si>
+    <t>O planeta sofreu transformação geológica</t>
+  </si>
+  <si>
+    <t>Início do apocalipse físico</t>
+  </si>
+  <si>
+    <t>Mudança astrológica</t>
+  </si>
+  <si>
+    <t>Nova era apenas simbólica</t>
+  </si>
+  <si>
+    <t>Através da Luz, do Johrei e da criação da cultura do Paraíso</t>
+  </si>
+  <si>
+    <t>Por imposição doutrinária</t>
+  </si>
+  <si>
+    <t>Por revolução social</t>
+  </si>
+  <si>
+    <t>Por isolamento espiritual</t>
+  </si>
+  <si>
+    <t>Por milagres forçados</t>
+  </si>
+  <si>
+    <t>Síntese de impurezas acumuladas pelos antepassados</t>
+  </si>
+  <si>
+    <t>Castigo direto de Deus</t>
+  </si>
+  <si>
+    <t>Culpa psicológica</t>
+  </si>
+  <si>
+    <t>Consequência de má educação</t>
+  </si>
+  <si>
+    <t>Tóxicos medicamentosos transmitidos por gerações</t>
+  </si>
+  <si>
+    <t>Micróbios agressivos</t>
+  </si>
+  <si>
+    <t>Resíduos alimentares</t>
+  </si>
+  <si>
+    <t>Toxinas da poluição</t>
+  </si>
+  <si>
+    <t>Acúmulo emocional</t>
+  </si>
+  <si>
+    <t>Resíduos de urina acumulados pela fraqueza renal</t>
+  </si>
+  <si>
+    <t>Dejetos do pulmão</t>
+  </si>
+  <si>
+    <t>Toxinas da pele</t>
+  </si>
+  <si>
+    <t>Restos de digestão</t>
+  </si>
+  <si>
+    <t>Micróbios externos</t>
+  </si>
+  <si>
+    <t>Tóxicos químicos contidos em fármacos</t>
+  </si>
+  <si>
+    <t>Excesso de vitaminas</t>
+  </si>
+  <si>
+    <t>Compostos naturais</t>
+  </si>
+  <si>
+    <t>Impurezas espirituais</t>
+  </si>
+  <si>
+    <t>Sais minerais</t>
+  </si>
+  <si>
+    <t>Toxinas urinárias</t>
+  </si>
+  <si>
+    <t>Medicamentosas</t>
+  </si>
+  <si>
+    <t>Hereditárias</t>
+  </si>
+  <si>
+    <t>Alimentares</t>
+  </si>
+  <si>
+    <t>Cutâneas</t>
+  </si>
+  <si>
+    <t>Catarro, secreção nasal, diarreia</t>
+  </si>
+  <si>
+    <t>Apenas suor</t>
+  </si>
+  <si>
+    <t>Somente febre</t>
+  </si>
+  <si>
+    <t>Tosse seca</t>
+  </si>
+  <si>
+    <t>Apenas lágrimas</t>
+  </si>
+  <si>
+    <t>Suor e urina</t>
+  </si>
+  <si>
+    <t>Vômito</t>
+  </si>
+  <si>
+    <t>Inflamação</t>
+  </si>
+  <si>
+    <t>Coceira</t>
+  </si>
+  <si>
+    <t>Pele seca</t>
+  </si>
+  <si>
+    <t>Falha do sistema nervoso em responder rapidamente</t>
+  </si>
+  <si>
+    <t>Falta de sorte</t>
+  </si>
+  <si>
+    <t>Maldição espiritual</t>
+  </si>
+  <si>
+    <t>Eventos inexplicáveis</t>
+  </si>
+  <si>
+    <t>Destino inevitável</t>
+  </si>
+  <si>
+    <t>Pessoas sem sintomas, mas com toxinas acumuladas</t>
+  </si>
+  <si>
+    <t>Pessoas sem doenças para sempre</t>
+  </si>
+  <si>
+    <t>Pessoas com corpo forte</t>
+  </si>
+  <si>
+    <t>Pessoas que não purificam nunca</t>
+  </si>
+  <si>
+    <t>Pessoas totalmente puras</t>
+  </si>
+  <si>
+    <t>Desuso da função natural de produzi-las</t>
+  </si>
+  <si>
+    <t>Falta de exercícios</t>
+  </si>
+  <si>
+    <t>Excesso de água</t>
+  </si>
+  <si>
+    <t>Pouca proteína</t>
+  </si>
+  <si>
+    <t>Baixa imunidade herdada</t>
+  </si>
+  <si>
+    <t>Focar só nos alimentos e ignorar as funções do corpo</t>
+  </si>
+  <si>
+    <t>Falta de nutrição artificial</t>
+  </si>
+  <si>
+    <t>Excesso de frutas</t>
+  </si>
+  <si>
+    <t>Comer pouca carne</t>
+  </si>
+  <si>
+    <t>Falta de suplementos</t>
+  </si>
+  <si>
+    <t>Antitérmicos, gelo, compressas</t>
+  </si>
+  <si>
+    <t>Exercícios leves</t>
+  </si>
+  <si>
+    <t>Descanso</t>
+  </si>
+  <si>
+    <t>Alimentação sólida</t>
+  </si>
+  <si>
+    <t>Hidratação</t>
+  </si>
+  <si>
+    <t>Irradiação da Luz de Deus para purificar espírito, mente e corpo</t>
+  </si>
+  <si>
+    <t>Técnica de magnetismo</t>
+  </si>
+  <si>
+    <t>Energia criada pelo homem</t>
+  </si>
+  <si>
+    <t>Transmissão mental</t>
+  </si>
+  <si>
+    <t>Oração silenciosa</t>
+  </si>
+  <si>
+    <t>Deus</t>
+  </si>
+  <si>
+    <t>Espírito do ministrante</t>
+  </si>
+  <si>
+    <t>Energia solar</t>
+  </si>
+  <si>
+    <t>Energia vital do corpo</t>
+  </si>
+  <si>
+    <t>Fatores ambientais</t>
+  </si>
+  <si>
+    <t>Elevar vibrações do ambiente</t>
+  </si>
+  <si>
+    <t>Enfeitar</t>
+  </si>
+  <si>
+    <t>Mostrar status</t>
+  </si>
+  <si>
+    <t>Cumprir tradição</t>
+  </si>
+  <si>
+    <t>Substituir perfume</t>
+  </si>
+  <si>
+    <t>Porque expressa harmonia divina</t>
+  </si>
+  <si>
+    <t>Porque agrada ao ego</t>
+  </si>
+  <si>
+    <t>Porque é caro</t>
+  </si>
+  <si>
+    <t>Porque demonstra cultura</t>
+  </si>
+  <si>
+    <t>Porque enfeita ambientes</t>
+  </si>
+  <si>
+    <t>Acúmulo e purificação de toxinas</t>
+  </si>
+  <si>
+    <t>Vírus sempre externos</t>
+  </si>
+  <si>
+    <t>Castigo divino</t>
+  </si>
+  <si>
+    <t>Alimentação ruim isolada</t>
+  </si>
+  <si>
+    <t>Destino fixo</t>
+  </si>
+  <si>
+    <t>Ausência de luz e virtude no espírito</t>
+  </si>
+  <si>
+    <t>Falta de estudo</t>
+  </si>
+  <si>
+    <t>Falta de moral social</t>
+  </si>
+  <si>
+    <t>Poucos amigos</t>
+  </si>
+  <si>
+    <t>Timidez</t>
+  </si>
+  <si>
+    <t>Aumentando a Luz através de ações de Bem</t>
+  </si>
+  <si>
+    <t>Só com estudo intelectual</t>
+  </si>
+  <si>
+    <t>Evitando sociedade</t>
+  </si>
+  <si>
+    <t>Jejum prolongado</t>
+  </si>
+  <si>
+    <t>Regras rígidas</t>
+  </si>
+  <si>
+    <t>Estado duradouro baseado em Luz e harmonia</t>
+  </si>
+  <si>
+    <t>Obter riqueza</t>
+  </si>
+  <si>
+    <t>Saúde perfeita apenas</t>
+  </si>
+  <si>
+    <t>Popularidade</t>
+  </si>
+  <si>
+    <t>Ausência total de problemas</t>
+  </si>
+  <si>
+    <t>Reconhecimento da ação divina na vida</t>
+  </si>
+  <si>
+    <t>Agradecer por obrigação</t>
+  </si>
+  <si>
+    <t>Sentir-se inferior</t>
+  </si>
+  <si>
+    <t>Expressão social</t>
+  </si>
+  <si>
+    <t>Costume cultural</t>
+  </si>
+  <si>
+    <t>Luz, beleza, ordem, flores e harmonia</t>
+  </si>
+  <si>
+    <t>Apenas limpeza</t>
+  </si>
+  <si>
+    <t>Acúmulo de riqueza</t>
+  </si>
+  <si>
+    <t>Rituais frequentes</t>
+  </si>
+  <si>
+    <t>Som ambiente adequado</t>
+  </si>
+  <si>
+    <t>Refina o espírito e fortalece a Luz</t>
+  </si>
+  <si>
+    <t>Distrai</t>
+  </si>
+  <si>
+    <t>Garante status</t>
+  </si>
+  <si>
+    <t>Diverte</t>
+  </si>
+  <si>
+    <t>Substitui religião</t>
+  </si>
+  <si>
+    <t>Tornar mais pura a Luz espiritual</t>
+  </si>
+  <si>
+    <t>Respirar melhor</t>
+  </si>
+  <si>
+    <t>Comer saudável apenas</t>
+  </si>
+  <si>
+    <t>Pensar positivo superficialmente</t>
+  </si>
+  <si>
+    <t>Manter autoestima</t>
+  </si>
+  <si>
+    <t>Mudando o indivíduo</t>
+  </si>
+  <si>
+    <t>Mudando governos</t>
+  </si>
+  <si>
+    <t>Acabando com guerras</t>
+  </si>
+  <si>
+    <t>Reformando economia</t>
+  </si>
+  <si>
+    <t>Criando leis</t>
+  </si>
+  <si>
+    <t>Pela ação da Luz de Deus</t>
+  </si>
+  <si>
+    <t>Pela energia mental forte</t>
+  </si>
+  <si>
+    <t>Por acaso</t>
+  </si>
+  <si>
+    <t>Por sugestão psicológica</t>
+  </si>
+  <si>
+    <t>Por magnetismo humano</t>
+  </si>
+  <si>
+    <t>Falta de dinheiro</t>
+  </si>
+  <si>
+    <t>Destino ruim</t>
+  </si>
+  <si>
+    <t>Cada um elimina impurezas e se harmoniza</t>
+  </si>
+  <si>
+    <t>Autossuficiência material</t>
+  </si>
+  <si>
+    <t>Afastar-se dos outros</t>
+  </si>
+  <si>
+    <t>Meditar apenas</t>
+  </si>
+  <si>
+    <t>Fazer caridade sem fé</t>
+  </si>
+  <si>
+    <t>Manchas de impurezas no espírito</t>
+  </si>
+  <si>
+    <t>Pensamentos negativos apenas</t>
+  </si>
+  <si>
+    <t>Emoções ruins</t>
+  </si>
+  <si>
+    <t>Traumas psicológicos</t>
+  </si>
+  <si>
+    <t>Falta de cultura</t>
+  </si>
+  <si>
+    <t>Pela prática diária e vivência dos ensinamentos</t>
+  </si>
+  <si>
+    <t>Por repetição mecânica</t>
+  </si>
+  <si>
+    <t>Por medo de punição</t>
+  </si>
+  <si>
+    <t>Só lendo muito</t>
+  </si>
+  <si>
+    <t>Obrigações sociais</t>
+  </si>
+  <si>
+    <t>Libertação da doença, pobreza e conflito</t>
+  </si>
+  <si>
+    <t>Apenas ir ao céu</t>
+  </si>
+  <si>
+    <t>Ter boa saúde física</t>
+  </si>
+  <si>
+    <t>Evitar sofrimento</t>
+  </si>
+  <si>
+    <t>Ter fé intelectual</t>
+  </si>
+  <si>
+    <t>Contribuir para a construção do Paraíso Terrestre</t>
+  </si>
+  <si>
+    <t>Realizar tarefas da igreja</t>
+  </si>
+  <si>
+    <t>Ajudar em eventos</t>
+  </si>
+  <si>
+    <t>Ter cargo religioso</t>
+  </si>
+  <si>
+    <t>Cumprir metas</t>
+  </si>
+  <si>
+    <t>O que é Verdade, segundo Meishu-Sama?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O que é o Belo dentro da Trindade?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O que significa materialismo?</t>
+  </si>
+  <si>
+    <t>O que significa espiritualismo?</t>
+  </si>
+  <si>
+    <t>Principal diferença entre espírito e matéria</t>
+  </si>
+  <si>
+    <t>Por que o mal progrediu até o momento atual?</t>
+  </si>
+  <si>
+    <t>O que significa “nasceu o Novo Mundo”?</t>
+  </si>
+  <si>
+    <t>Como a IMM corrigirá os erros da humanidade?</t>
+  </si>
+  <si>
+    <t>O que é pecado hereditário?</t>
+  </si>
+  <si>
+    <t>O que são toxinas hereditárias?</t>
+  </si>
+  <si>
+    <t>O que são toxinas urinárias?</t>
+  </si>
+  <si>
+    <t>O que são toxinas medicamentosas?</t>
+  </si>
+  <si>
+    <t>Qual toxina é produzida continuamente, dia e noite?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Como toxinas densas são eliminadas?</t>
+  </si>
+  <si>
+    <t>Como toxinas ralas são eliminadas?</t>
+  </si>
+  <si>
+    <t>O que causa acidentes segundo Meishu-Sama?</t>
+  </si>
+  <si>
+    <t>O que são “pessoas de saúde aparente”?</t>
+  </si>
+  <si>
+    <t>O que enfraquece o corpo ao tomar muitas vitaminas?</t>
+  </si>
+  <si>
+    <t>Erro central da dietética moderna</t>
+  </si>
+  <si>
+    <t>Tratamentos que solidificam toxinas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O que é Johrei?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Origem da Luz irradiada no Johrei</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Função da flor no Lar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Por que o Belo aproxima de Deus?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O que causa doença?</t>
+  </si>
+  <si>
+    <t>O que é pobreza espiritual?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Como se eleva a espiritualidade?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O que é felicidade verdadeira?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O que é gratidão segundo Meishu-Sama?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Como transformar o lar em Paraíso?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Por que a arte é importante no Paraíso?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O que significa “elevar o padrão vibratório”?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Como começa a construção do Paraíso?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Como ocorre o milagre?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O que impede a felicidade?</t>
+  </si>
+  <si>
+    <t>O que significa “salvação pela própria pessoa”?</t>
+  </si>
+  <si>
+    <t>O que são nuvens espirituais?</t>
+  </si>
+  <si>
+    <t>Como se fortalece a fé?</t>
+  </si>
+  <si>
+    <t>O que é salvação?</t>
+  </si>
+  <si>
+    <t>Qual é a missão do Homem?</t>
+  </si>
+  <si>
+    <t>Porque revela a ação da purificação em escala coletiva.</t>
+  </si>
+  <si>
+    <t>Porque estimula o sofrimento necessário ao crescimento.</t>
+  </si>
+  <si>
+    <t>Porque fortalece a personalidade humana.</t>
+  </si>
+  <si>
+    <t>Porque organiza o karma da humanidade.</t>
+  </si>
+  <si>
+    <t>Porque cria oportunidade de práticas religiosas.</t>
+  </si>
+  <si>
+    <t>Porque analisa somente fenômenos materiais e ignora o espírito.</t>
+  </si>
+  <si>
+    <t>Porque não possui tecnologia suficiente.</t>
+  </si>
+  <si>
+    <t>Porque sua metodologia é limitada por estatísticas.</t>
+  </si>
+  <si>
+    <t>Porque falta financiamento adequado.</t>
+  </si>
+  <si>
+    <t>Porque interpreta sintomas somente por micróbios.</t>
+  </si>
+  <si>
+    <t>Porque densifica nuvens espirituais e dificulta a purificação.</t>
+  </si>
+  <si>
+    <t>Porque altera o pH do sangue.</t>
+  </si>
+  <si>
+    <t>Porque baixa a temperatura corporal.</t>
+  </si>
+  <si>
+    <t>Porque desvia energia vital para o cérebro.</t>
+  </si>
+  <si>
+    <t>Porque aumenta adrenalina em excesso.</t>
+  </si>
+  <si>
+    <t>A dor de purificação migra; a artificial é fixa e estagnada.</t>
+  </si>
+  <si>
+    <t>A dor artificial aparece só de noite.</t>
+  </si>
+  <si>
+    <t>A dor de purificação nunca causa febre.</t>
+  </si>
+  <si>
+    <t>A dor artificial aumenta com fé forte.</t>
+  </si>
+  <si>
+    <t>A dor de purificação desaparece com analgésicos.</t>
+  </si>
+  <si>
+    <t>Porque há desarmonia espiritual maior que o avanço tecnológico.</t>
+  </si>
+  <si>
+    <t>Porque alimentos industrializados são tóxicos.</t>
+  </si>
+  <si>
+    <t>Porque cidades são superlotadas.</t>
+  </si>
+  <si>
+    <t>Porque o estresse moderno é mais intenso.</t>
+  </si>
+  <si>
+    <t>Porque medicamentos são usados em excesso.</t>
+  </si>
+  <si>
+    <t>Porque tratam apenas o efeito, ignorando a causa espiritual.</t>
+  </si>
+  <si>
+    <t>Porque não atingem regiões profundas do corpo.</t>
+  </si>
+  <si>
+    <t>Porque possuem energia insuficiente.</t>
+  </si>
+  <si>
+    <t>Porque a matéria não responde ao estímulo externo.</t>
+  </si>
+  <si>
+    <t>Porque não ativam enzimas de cura.</t>
+  </si>
+  <si>
+    <t>Porque bloqueiam a Luz, impedindo vibração de harmonia.</t>
+  </si>
+  <si>
+    <t>Porque criam tristeza crônica.</t>
+  </si>
+  <si>
+    <t>Porque geram isolamento social.</t>
+  </si>
+  <si>
+    <t>Porque reduzem a energia física.</t>
+  </si>
+  <si>
+    <t>Porque estimulam pensamentos negativos.</t>
+  </si>
+  <si>
+    <t>Porque acumulavam toxinas silenciosas por anos.</t>
+  </si>
+  <si>
+    <t>Porque tinham alimentação inadequada.</t>
+  </si>
+  <si>
+    <t>Porque tinham resistência emocional baixa.</t>
+  </si>
+  <si>
+    <t>Porque estavam em ambientes negativos.</t>
+  </si>
+  <si>
+    <t>Porque tinham alto nível de estresse.</t>
+  </si>
+  <si>
+    <t>Porque precisam purificar mais rápido para cumprir funções divinas.</t>
+  </si>
+  <si>
+    <t>Porque têm metabolismo mais forte.</t>
+  </si>
+  <si>
+    <t>Porque são mais sensíveis espiritualmente.</t>
+  </si>
+  <si>
+    <t>Porque atraem mais impurezas externas.</t>
+  </si>
+  <si>
+    <t>Porque possuem fé maior desde crianças.</t>
+  </si>
+  <si>
+    <t>Porque fixa a consciência na matéria, densificando vibrações espirituais.</t>
+  </si>
+  <si>
+    <t>Porque ocupa espaço mental demais.</t>
+  </si>
+  <si>
+    <t>Porque diminui a motivação pessoal.</t>
+  </si>
+  <si>
+    <t>Porque prejudica decisões práticas.</t>
+  </si>
+  <si>
+    <t>Porque altera o sistema nervoso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Por que o mal é chamado de “limpador do mundo”, segundo Meishu-Sama?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Por que a ciência moderna não compreende a causa real das doenças?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Por que o medo intensifica sintomas durante purificação?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O que diferencia dor de purificação da dor artificial?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Por que a civilização atual produz doença apesar do conforto material?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Por que tratamentos só físicos falham segundo “O espírito precede a matéria”?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Por que a felicidade não coexiste com nuvens espirituais densas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Por que pessoas “aparentemente saudáveis” podem ter purificações fortes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Por que a Luz age mais intensamente em pessoas com missão?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Por que o apego aos problemas impede a ação da Luz?</t>
+  </si>
+  <si>
+    <t>Porque indica que a purificação atingiu a camada profunda da toxina.</t>
+  </si>
+  <si>
+    <t>Porque o corpo está ficando mais fraco.</t>
+  </si>
+  <si>
+    <t>Porque a dor desperta a fé pela força.</t>
+  </si>
+  <si>
+    <t>Porque o corpo está pedindo descanso.</t>
+  </si>
+  <si>
+    <t>Porque o sintoma está estabilizando.</t>
+  </si>
+  <si>
+    <t>Porque toxinas antigas se liquefazem e voltam à circulação.</t>
+  </si>
+  <si>
+    <t>Porque o corpo “lembra” os sintomas.</t>
+  </si>
+  <si>
+    <t>Porque a genética volta a agir.</t>
+  </si>
+  <si>
+    <t>Porque micróbios retornam ao organismo.</t>
+  </si>
+  <si>
+    <t>Porque o estresse ativa memórias celulares.</t>
+  </si>
+  <si>
+    <t>Porque a Luz atua diretamente no espírito antes da manifestação na matéria.</t>
+  </si>
+  <si>
+    <t>Porque a pessoa é muito forte fisicamente.</t>
+  </si>
+  <si>
+    <t>Porque a doença é sutil demais.</t>
+  </si>
+  <si>
+    <t>Porque a toxina é eliminada pelo fígado.</t>
+  </si>
+  <si>
+    <t>Porque a pessoa está distraída e não percebe.</t>
+  </si>
+  <si>
+    <t>Porque interrompem a purificação e solidificam toxinas.</t>
+  </si>
+  <si>
+    <t>Porque reduzem a energia vital.</t>
+  </si>
+  <si>
+    <t>Porque deixam a mente dependente.</t>
+  </si>
+  <si>
+    <t>Porque causam fraqueza muscular.</t>
+  </si>
+  <si>
+    <t>Porque aceleram demais o metabolismo.</t>
+  </si>
+  <si>
+    <t>Densidade e profundidade das toxinas acumuladas.</t>
+  </si>
+  <si>
+    <t>Força do corpo físico.</t>
+  </si>
+  <si>
+    <t>Frequência das orações.</t>
+  </si>
+  <si>
+    <t>Quantidade de suor produzido.</t>
+  </si>
+  <si>
+    <t>Tipo sanguíneo da pessoa.</t>
+  </si>
+  <si>
+    <t>Porque a toxina se desloca conforme se liquefaz.</t>
+  </si>
+  <si>
+    <t>Porque o nervo transmite sinais aleatórios.</t>
+  </si>
+  <si>
+    <t>Porque há microlesões múltiplas.</t>
+  </si>
+  <si>
+    <t>Porque o corpo está sobrecarregado.</t>
+  </si>
+  <si>
+    <t>Porque a circulação fica acelerada.</t>
+  </si>
+  <si>
+    <t>Agitar e dissolver as toxinas.</t>
+  </si>
+  <si>
+    <t>Adormecê-las para posterior eliminação.</t>
+  </si>
+  <si>
+    <t>Fixar toxinas em nódulos.</t>
+  </si>
+  <si>
+    <t>Converter toxinas em energia vital.</t>
+  </si>
+  <si>
+    <t>Movê-las diretamente à pele.</t>
+  </si>
+  <si>
+    <t>Porque toxinas profundas provocam sintomas mais intensos ao se liquefazerem.</t>
+  </si>
+  <si>
+    <t>Porque o corpo está mais sensível.</t>
+  </si>
+  <si>
+    <t>Porque a fé ainda é fraca.</t>
+  </si>
+  <si>
+    <t>Porque a pessoa repousa pouco.</t>
+  </si>
+  <si>
+    <t>Porque a alimentação contribui.</t>
+  </si>
+  <si>
+    <t>Solidificação de toxinas seguida de nova tentativa de purificação.</t>
+  </si>
+  <si>
+    <t>Volta do microrganismo agressor.</t>
+  </si>
+  <si>
+    <t>Falta de vitaminas essenciais.</t>
+  </si>
+  <si>
+    <t>Falta de repouso adequado.</t>
+  </si>
+  <si>
+    <t>Falta de água para hidratar o corpo.</t>
+  </si>
+  <si>
+    <t>Porque acelera a liquefação e expulsão das toxinas.</t>
+  </si>
+  <si>
+    <t>Porque fortalece o coração.</t>
+  </si>
+  <si>
+    <t>Porque aumenta irrigação cerebral.</t>
+  </si>
+  <si>
+    <t>Porque melhora memória celular.</t>
+  </si>
+  <si>
+    <t>Porque estimula hormônios positivos.</t>
+  </si>
+  <si>
+    <t>Porque mostram todas as fases da eliminação de toxinas.</t>
+  </si>
+  <si>
+    <t>Porque sempre são leves.</t>
+  </si>
+  <si>
+    <t>Porque ocorrem só no inverno.</t>
+  </si>
+  <si>
+    <t>Porque não exigem repouso.</t>
+  </si>
+  <si>
+    <t>Porque são ciclos de curto prazo.</t>
+  </si>
+  <si>
+    <t>Porque expulsam toxinas densas dos pulmões.</t>
+  </si>
+  <si>
+    <t>Porque indicam inflamação ativa.</t>
+  </si>
+  <si>
+    <t>Porque ativam anticorpos.</t>
+  </si>
+  <si>
+    <t>Porque fortalecem a musculatura respiratória.</t>
+  </si>
+  <si>
+    <t>Porque eliminam vírus.</t>
+  </si>
+  <si>
+    <t>Porque a Luz intensifica a dissolução das toxinas.</t>
+  </si>
+  <si>
+    <t>Porque a energia do ministrante é instável.</t>
+  </si>
+  <si>
+    <t>Porque houve aplicação excessiva.</t>
+  </si>
+  <si>
+    <t>Porque o corpo está estressado.</t>
+  </si>
+  <si>
+    <t>Porque a circulação ficou lenta.</t>
+  </si>
+  <si>
+    <t>Porque acumulam mais toxinas medicamentosas.</t>
+  </si>
+  <si>
+    <t>Porque são mais sensíveis.</t>
+  </si>
+  <si>
+    <t>Porque têm imunidade instável.</t>
+  </si>
+  <si>
+    <t>Porque são suscetíveis psicologicamente.</t>
+  </si>
+  <si>
+    <t>Porque o clima influencia.</t>
+  </si>
+  <si>
+    <t>Porque o aumento de Luz revela impurezas escondidas.</t>
+  </si>
+  <si>
+    <t>Porque a rotina muda.</t>
+  </si>
+  <si>
+    <t>Porque mudanças emocionais geram estresse.</t>
+  </si>
+  <si>
+    <t>Porque aumenta o fluxo sanguíneo.</t>
+  </si>
+  <si>
+    <t>Porque a pessoa pensa mais.</t>
+  </si>
+  <si>
+    <t>Porque nuvens espirituais sobem para ser dissipadas.</t>
+  </si>
+  <si>
+    <t>Porque há tensão no pescoço.</t>
+  </si>
+  <si>
+    <t>Porque a circulação está lenta.</t>
+  </si>
+  <si>
+    <t>Porque há alteração no sono.</t>
+  </si>
+  <si>
+    <t>Porque falta hidratação.</t>
+  </si>
+  <si>
+    <t>Porque o corpo busca energia para expulsar toxinas.</t>
+  </si>
+  <si>
+    <t>Porque o metabolismo ficou mais rápido.</t>
+  </si>
+  <si>
+    <t>Porque aumenta a ansiedade.</t>
+  </si>
+  <si>
+    <t>Porque o estômago está inflamado.</t>
+  </si>
+  <si>
+    <t>Porque há carência nutricional.</t>
+  </si>
+  <si>
+    <t>Porque recebem maior quantidade de Luz.</t>
+  </si>
+  <si>
+    <t>Porque têm imunidade baixa.</t>
+  </si>
+  <si>
+    <t>Porque se expõem mais ao frio.</t>
+  </si>
+  <si>
+    <t>Porque comem menos.</t>
+  </si>
+  <si>
+    <t>Porque têm muitos compromissos.</t>
+  </si>
+  <si>
+    <t>Porque dependem da profundidade das toxinas, não da duração.</t>
+  </si>
+  <si>
+    <t>Porque sempre terminam rápido.</t>
+  </si>
+  <si>
+    <t>Porque afetam apenas estrutura mental.</t>
+  </si>
+  <si>
+    <t>Porque não alteram o corpo físico.</t>
+  </si>
+  <si>
+    <t>Porque só ocorrem em idosos.</t>
+  </si>
+  <si>
+    <t>Porque a Luz age imediatamente sobre impurezas densas.</t>
+  </si>
+  <si>
+    <t>Porque há choque térmico.</t>
+  </si>
+  <si>
+    <t>Porque a postura estava incorreta.</t>
+  </si>
+  <si>
+    <t>Porque o ambiente estava quente.</t>
+  </si>
+  <si>
+    <t>Por que Meishu-Sama afirma que “a dor é a prova de que a salvação está próxima”?</t>
+  </si>
+  <si>
+    <t>Por que doenças antigas costumam retornar nas purificações?</t>
+  </si>
+  <si>
+    <t>Qual a razão de algumas purificações ocorrerem sem sintomas visíveis?</t>
+  </si>
+  <si>
+    <t>Por que tratamentos que aliviam sintomas rapidamente são perigosos?</t>
+  </si>
+  <si>
+    <t>O que determina a intensidade de uma purificação?</t>
+  </si>
+  <si>
+    <t>Por que algumas dores “saltam” de um lugar para outro?</t>
+  </si>
+  <si>
+    <t>Qual é o primeiro efeito da Luz ao entrar em contato com impurezas?</t>
+  </si>
+  <si>
+    <t>Por que a purificação às vezes parece pior que a própria doença?</t>
+  </si>
+  <si>
+    <t>O que causa recaídas após tomar remédios?</t>
+  </si>
+  <si>
+    <t>Por que febre é considerada um mecanismo divino?</t>
+  </si>
+  <si>
+    <t>Por que resfriados são considerados “purificações modelo”?</t>
+  </si>
+  <si>
+    <t>Por que tosse e catarro são sinais positivos no ensinamento messiânico?</t>
+  </si>
+  <si>
+    <t>Por que uma dor pode aumentar após Johrei?</t>
+  </si>
+  <si>
+    <t>Por que pessoas que tomaram muitos remédios purificam mais?</t>
+  </si>
+  <si>
+    <t>Por que purificações ocorrem com mais frequência após melhora espiritual?</t>
+  </si>
+  <si>
+    <t>Por que dores de cabeça espirituais podem surgir subitamente?</t>
+  </si>
+  <si>
+    <t>Por que fome durante purificação pode ser sinal de melhora?</t>
+  </si>
+  <si>
+    <t>Por que pessoas com fé profunda podem ter purificações fortes?</t>
+  </si>
+  <si>
+    <t>Por que purificações longas não devem ser confundidas com doenças crônicas?</t>
+  </si>
+  <si>
+    <t>Por que sintomas podem piorar poucos instantes após o Johrei?</t>
+  </si>
+  <si>
+    <t>31. Por que o apego bloqueia a felicidade?</t>
+  </si>
+  <si>
+    <t>Porque fixa a consciência na matéria e densifica nuvens espirituais.</t>
+  </si>
+  <si>
+    <t>Porque afasta pessoas próximas.</t>
+  </si>
+  <si>
+    <t>Porque reduz autoestima.</t>
+  </si>
+  <si>
+    <t>Porque gera dependência emocional.</t>
+  </si>
+  <si>
+    <t>Porque causa estresse físico.</t>
+  </si>
+  <si>
+    <t>Porque cria vibrações que acumulam novas nuvens espirituais.</t>
+  </si>
+  <si>
+    <t>Porque ativa hormônios ruins.</t>
+  </si>
+  <si>
+    <t>Porque provoca tensão muscular.</t>
+  </si>
+  <si>
+    <t>Porque reduz imunidade.</t>
+  </si>
+  <si>
+    <t>Porque distorce raciocínio.</t>
+  </si>
+  <si>
+    <t>Porque criam vibrações densas que atraem impurezas.</t>
+  </si>
+  <si>
+    <t>Porque prejudicam produtividade.</t>
+  </si>
+  <si>
+    <t>Porque atrapalham o sono.</t>
+  </si>
+  <si>
+    <t>Porque diminuem foco.</t>
+  </si>
+  <si>
+    <t>Porque geram ansiedade.</t>
+  </si>
+  <si>
+    <t>Porque eleva a vibração e atrai Luz.</t>
+  </si>
+  <si>
+    <t>Porque distrai a mente.</t>
+  </si>
+  <si>
+    <t>Porque melhora humor.</t>
+  </si>
+  <si>
+    <t>Porque reduz estresse.</t>
+  </si>
+  <si>
+    <t>Porque ajuda memorização.</t>
+  </si>
+  <si>
+    <t>Porque reflete diretamente a harmonia do Mundo Divino.</t>
+  </si>
+  <si>
+    <t>Porque é mais agradável sensorialmente.</t>
+  </si>
+  <si>
+    <t>Porque inspira criatividade.</t>
+  </si>
+  <si>
+    <t>Porque expressa cultura.</t>
+  </si>
+  <si>
+    <t>Porque é universalmente apreciado.</t>
+  </si>
+  <si>
+    <t>Porque o ambiente material expressa o estado do espírito.</t>
+  </si>
+  <si>
+    <t>Porque facilita tarefas.</t>
+  </si>
+  <si>
+    <t>Porque ajuda a disciplinar horários.</t>
+  </si>
+  <si>
+    <t>Porque reduz cansaço visual.</t>
+  </si>
+  <si>
+    <t>Porque otimiza o espaço.</t>
+  </si>
+  <si>
+    <t>Porque absorvem e irradiam Luz pela sua pureza natural.</t>
+  </si>
+  <si>
+    <t>Porque aromatizam o lar.</t>
+  </si>
+  <si>
+    <t>Porque representam vida.</t>
+  </si>
+  <si>
+    <t>Porque alegram o ambiente.</t>
+  </si>
+  <si>
+    <t>Porque têm cores vibrantes.</t>
+  </si>
+  <si>
+    <t>Porque apenas a vivência gera Luz e purificação real.</t>
+  </si>
+  <si>
+    <t>Porque leitura excessiva confunde.</t>
+  </si>
+  <si>
+    <t>Porque práticas são mais motivadoras.</t>
+  </si>
+  <si>
+    <t>Porque é tradição religiosa.</t>
+  </si>
+  <si>
+    <t>Porque facilita a memorização.</t>
+  </si>
+  <si>
+    <t>Porque rompe com a ordem divina da reciprocidade da Luz.</t>
+  </si>
+  <si>
+    <t>Porque deixa a pessoa triste.</t>
+  </si>
+  <si>
+    <t>Porque afasta amigos.</t>
+  </si>
+  <si>
+    <t>Porque gera tensão emocional.</t>
+  </si>
+  <si>
+    <t>Porque causa arrependimento.</t>
+  </si>
+  <si>
+    <t>Porque alinham o indivíduo à vibração do Bem divino.</t>
+  </si>
+  <si>
+    <t>Porque causam bem-estar físico.</t>
+  </si>
+  <si>
+    <t>Porque fortalecem autoestima.</t>
+  </si>
+  <si>
+    <t>Porque criam vínculos sociais.</t>
+  </si>
+  <si>
+    <t>Porque estimulam empatia.</t>
+  </si>
+  <si>
+    <t>Porque o que transforma é a Luz, não o confronto.</t>
+  </si>
+  <si>
+    <t>Porque o mal é forte demais.</t>
+  </si>
+  <si>
+    <t>Porque isso gera estresse emocional.</t>
+  </si>
+  <si>
+    <t>Porque exige muito estudo.</t>
+  </si>
+  <si>
+    <t>Porque enfraquece a fé.</t>
+  </si>
+  <si>
+    <t>Porque abre espaço no espírito para a atuação divina.</t>
+  </si>
+  <si>
+    <t>Porque melhora relações sociais.</t>
+  </si>
+  <si>
+    <t>Porque reduz conflitos.</t>
+  </si>
+  <si>
+    <t>Porque gera empatia.</t>
+  </si>
+  <si>
+    <t>Porque evita soberba externa.</t>
+  </si>
+  <si>
+    <t>Porque o processo purificatório é pedagógico e transforma o espírito.</t>
+  </si>
+  <si>
+    <t>Porque Deus espera o esforço humano.</t>
+  </si>
+  <si>
+    <t>Porque o livre-arbítrio impede.</t>
+  </si>
+  <si>
+    <t>Porque a humanidade não merece ainda.</t>
+  </si>
+  <si>
+    <t>Porque é necessário equilíbrio kármico.</t>
+  </si>
+  <si>
+    <t>Porque aumento de alegria expande Luz e revela impurezas escondidas.</t>
+  </si>
+  <si>
+    <t>Porque a pessoa relaxa e baixa a guarda.</t>
+  </si>
+  <si>
+    <t>Porque cria euforia hormonal.</t>
+  </si>
+  <si>
+    <t>Porque aumenta sono.</t>
+  </si>
+  <si>
+    <t>Porque há desgaste emocional.</t>
+  </si>
+  <si>
+    <t>Porque há sincronia vibratória que intensifica a atuação da Luz.</t>
+  </si>
+  <si>
+    <t>Porque micróbios se espalham.</t>
+  </si>
+  <si>
+    <t>Porque há empatia emocional.</t>
+  </si>
+  <si>
+    <t>Porque há influência psicológica.</t>
+  </si>
+  <si>
+    <t>Porque a convivência aumenta estresse.</t>
+  </si>
+  <si>
+    <t>Porque expandem e atraem Luz, dissolvendo impurezas mais rápido.</t>
+  </si>
+  <si>
+    <t>Porque otimizam o metabolismo.</t>
+  </si>
+  <si>
+    <t>Porque acalmam o sistema nervoso.</t>
+  </si>
+  <si>
+    <t>Porque reduzem cortisol.</t>
+  </si>
+  <si>
+    <t>Porque organizam pensamentos.</t>
+  </si>
+  <si>
+    <t>Porque toxinas do peito e da tristeza profunda se liquefazem.</t>
+  </si>
+  <si>
+    <t>Porque o ar fica mais seco.</t>
+  </si>
+  <si>
+    <t>Porque há mudanças climáticas.</t>
+  </si>
+  <si>
+    <t>Porque a pessoa dorme menos.</t>
+  </si>
+  <si>
+    <t>Porque respira rápido demais.</t>
+  </si>
+  <si>
+    <t>Porque acumulam vibrações densas que precisam ser dissipadas.</t>
+  </si>
+  <si>
+    <t>Porque causam estresse mental.</t>
+  </si>
+  <si>
+    <t>Porque geram má convivência.</t>
+  </si>
+  <si>
+    <t>Porque prejudicam foco.</t>
+  </si>
+  <si>
+    <t>Porque aumentam ansiedade.</t>
+  </si>
+  <si>
+    <t>Porque indicam eliminação de toxinas ralas e superficiais.</t>
+  </si>
+  <si>
+    <t>Porque mostram alergia.</t>
+  </si>
+  <si>
+    <t>Porque revelam fragilidade imunológica.</t>
+  </si>
+  <si>
+    <t>Porque a pele reage a alimentos específicos.</t>
+  </si>
+  <si>
+    <t>Porque há irritação ambiental.</t>
+  </si>
+  <si>
+    <t>Porque necessitam de maior lapidação espiritual para cumprir seu papel.</t>
+  </si>
+  <si>
+    <t>Porque são mais vulneráveis.</t>
+  </si>
+  <si>
+    <t>Porque têm personalidade sensível.</t>
+  </si>
+  <si>
+    <t>Porque convivem com pessoas difíceis.</t>
+  </si>
+  <si>
+    <t>Porque sofrem mais pressão social.</t>
+  </si>
+  <si>
+    <t>Por que o pensamento negativo atrai purificações?</t>
+  </si>
+  <si>
+    <t>or que ambientes desorganizados afetam o espírito?</t>
+  </si>
+  <si>
+    <t>Por que a arte purifica o espírito?</t>
+  </si>
+  <si>
+    <t>Por que o Belo tem força espiritual superior ao útil?</t>
+  </si>
+  <si>
+    <t>Por que a ordem externa reflete a ordem interna?</t>
+  </si>
+  <si>
+    <t>Por que as flores possuem forte poder espiritual?</t>
+  </si>
+  <si>
+    <t>Por que a fé deve ser prática e não apenas intelectual?</t>
+  </si>
+  <si>
+    <t>Por que a ingratidão gera nuvens espirituais?</t>
+  </si>
+  <si>
+    <t>Por que atos de bondade aumentam a Luz?</t>
+  </si>
+  <si>
+    <t>Por que “lutar contra o mal” não é o foco da fé messiânica?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Por que a humildade atrai a Luz?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Por que Deus não elimina diretamente todas as impurezas humanas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Por que purificações podem ocorrer após grandes conquistas pessoais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Por que a Luz age mais forte em quem está próximo de alguém em purificação?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Por que fé e gratidão aceleram curas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Por que doenças respiratórias são comuns em grandes avanços espirituais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Por que ambientes com conflito geram mais purificações?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Por que purificações de pele representam boa evolução?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Por que pessoas de missão atraem desafios maiores?</t>
+  </si>
+  <si>
+    <t>Porque o mundo ainda se encontrava em condição infernal.</t>
+  </si>
+  <si>
+    <t>Moradia,pais no andar superior ed isposição de pessoas à mesa, chefe no lugar de honra.</t>
+  </si>
+  <si>
+    <t>Porque os espíritos malignos lutam incessantemente contra as divindades do bem ,que criam uma sociedade sem sofrimento.</t>
+  </si>
+  <si>
+    <t>É para construir o Paraíso Terrestre, o Mundo Ideal.</t>
+  </si>
+  <si>
+    <t>Está na dificuldade da interpretação das suas escrituras</t>
+  </si>
+  <si>
+    <t>A eliminação da doença materia e espiritual do ser humano.</t>
+  </si>
+  <si>
+    <t>O homem bom crer no invisível. O homem mal acredita apenas no visível.</t>
+  </si>
+  <si>
+    <t>Significa Liberdade total, sem estar preso ao tradicionalismo, nta, moldes, limites ou mandamentos dogmáticos</t>
+  </si>
+  <si>
+    <t>É um problema relacionado ao sistema nervoso do homem :falta de agilidade/prontidão de escapar de um perigo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> é natural que qualquer um se sinta bem ao se relacionar com nossos fiéis e passe a se reunir com alegria à sua volta.</t>
+  </si>
+  <si>
+    <t>Elas se limitam a assuntos triviais, não falando de religião, de política, de filosofia e muito menos de arte.</t>
+  </si>
+  <si>
+    <t>Por meio de milagres notáveis</t>
+  </si>
+  <si>
+    <t>Aquela dirigida pelo Supremo Deus</t>
+  </si>
+  <si>
+    <t>Sim, há religiões de nível superior, médio e inferior</t>
+  </si>
+  <si>
+    <t>Meishu-Sama afirma que o pragmatismo significa filosofia em ação; porém, eu proponho alterar para religião em ação</t>
+  </si>
+  <si>
+    <t>Religião viva é aquela que está associada ao cotidiano, e a morta é exatamente o oposto</t>
+  </si>
+  <si>
+    <t>Ela respeita a História, mas não se prende a isso: avança no tempo seguindo diretrizes próprias, de acordo com os desígnios de Deus</t>
+  </si>
+  <si>
+    <t>Desenvolve atualmente projetos que abrangem a reforma da agricultura e da medicina e ainda aponta todas as falhas da cultura, adotando, como princípio norteador, o ideal de uma nova cultura</t>
+  </si>
+  <si>
+    <t>Sua finalidade é criar uma sociedade alegre e sem preocupações</t>
+  </si>
+  <si>
+    <t>As religiões antigas geralmente contam com espantoso número de adeptos, mas estes, na maioria, são indivíduos de pouca cultura</t>
+  </si>
+  <si>
+    <t>Entre as religiões novas, há algumas que dão uma nova roupagem a religiões antigas e sem força de salvação.</t>
+  </si>
+  <si>
+    <t>Uma religião grandiosa e ultrarreligiosa a ponto de toda a humanidade crer nela</t>
+  </si>
+  <si>
+    <t>Mostrar como elaborar o plano, o projeto para a construção deste mundo</t>
+  </si>
+  <si>
+    <t>Escrevo a Verdade</t>
+  </si>
+  <si>
+    <t>Reagem negando a existência das divindades e pedindo que provemos tal existência com toda a clareza</t>
+  </si>
+  <si>
+    <t>Porque muitas das religiões são anticientíficas, sendo raras as que não cheiram a superstição</t>
+  </si>
+  <si>
+    <t>Os inúmeros relatos de milagres e graças alcançados pelos nossos fiéis</t>
+  </si>
+  <si>
+    <t>Começaram a receber Johrei cheios de desconfiança</t>
+  </si>
+  <si>
+    <t>Sentindo-se mais dispostos no dia seguinte, optaram por persistir um pouco mais e melhoraram rapidamente</t>
+  </si>
+  <si>
+    <t>Tudo o que existe no mundo material tem sua origem no mundo espiritual</t>
+  </si>
+  <si>
+    <t>No mundo espiritual, o que está predestinado se une, criando o elo</t>
+  </si>
+  <si>
+    <t>É o resultado da união de seus elos espirituais</t>
+  </si>
+  <si>
+    <t>Os laços de sangue resultam dos elos espirituais</t>
+  </si>
+  <si>
+    <t>Elas também são estabelecidas através de elos espirituais</t>
+  </si>
+  <si>
+    <t>Porque há elos espirituais de inimigos do passado.</t>
+  </si>
+  <si>
+    <t>Todos eles são determinados pelos elos espirituais</t>
+  </si>
+  <si>
+    <t>É o mundo que a ciência atual ainda não consegue compreender</t>
+  </si>
+  <si>
+    <t>Considera-o inexistente</t>
+  </si>
+  <si>
+    <t>Eliminar da humanidade toda espécie de medo</t>
+  </si>
+  <si>
+    <t>A doença, a pobreza e o conflito</t>
+  </si>
+  <si>
+    <t>O medo da doença</t>
+  </si>
+  <si>
+    <t>A doença leva a grandes despesas e perda de trabalho</t>
+  </si>
+  <si>
+    <t>O medo da guerra</t>
+  </si>
+  <si>
+    <t>Com a chegada do Paraíso Terrestre, esses sofrimentos terão fim</t>
+  </si>
+  <si>
+    <t>Eliminar os três grandes medos da humanidade</t>
+  </si>
+  <si>
+    <t>Na verdade, há muitos aspectos em que uma e outra se diferenciam</t>
+  </si>
+  <si>
+    <t>É a crença cega em ídolos ou objetos.</t>
   </si>
 </sst>
 </file>
@@ -2756,7 +4478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2772,6 +4494,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3087,10 +4812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A58C99-9AB9-476C-A6FE-F93380D5DCE3}">
-  <dimension ref="A1:F147"/>
+  <dimension ref="A1:F243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B147"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3111,16 +4836,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>874</v>
+        <v>806</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>874</v>
+        <v>806</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>874</v>
+        <v>806</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>874</v>
+        <v>806</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3128,2919 +4853,4836 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>1416</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>290</v>
+        <v>238</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>292</v>
+        <v>240</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>293</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>1417</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>294</v>
+        <v>242</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>295</v>
+        <v>243</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>297</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>1418</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>298</v>
+        <v>246</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>299</v>
+        <v>247</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>301</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>1419</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>302</v>
+        <v>250</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>303</v>
+        <v>251</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>305</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>1420</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>306</v>
+        <v>254</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>308</v>
+        <v>256</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>309</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>1421</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>310</v>
+        <v>258</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>311</v>
+        <v>259</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>313</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>1422</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>314</v>
+        <v>262</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>317</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>1423</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>319</v>
+        <v>267</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>320</v>
+        <v>268</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>321</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>1424</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>322</v>
+        <v>270</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>323</v>
+        <v>271</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>325</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>21</v>
+        <v>1425</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>326</v>
+        <v>274</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>328</v>
+        <v>276</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>329</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>1426</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>331</v>
+        <v>279</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>332</v>
+        <v>280</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>333</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>1427</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>334</v>
+        <v>282</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>335</v>
+        <v>283</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>336</v>
+        <v>284</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>1428</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>339</v>
+        <v>287</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>340</v>
+        <v>288</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>341</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>29</v>
+        <v>1429</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>342</v>
+        <v>290</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>343</v>
+        <v>291</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>344</v>
+        <v>292</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>345</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>31</v>
+        <v>1430</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>346</v>
+        <v>294</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>347</v>
+        <v>295</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>348</v>
+        <v>296</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>1431</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>350</v>
+        <v>298</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>352</v>
+        <v>300</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>353</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>35</v>
+        <v>1432</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>354</v>
+        <v>302</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>355</v>
+        <v>303</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>356</v>
+        <v>304</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>357</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>1433</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>358</v>
+        <v>306</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>359</v>
+        <v>307</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>360</v>
+        <v>308</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>361</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>39</v>
+        <v>1434</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>362</v>
+        <v>310</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>363</v>
+        <v>311</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>365</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>41</v>
+        <v>1435</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>366</v>
+        <v>314</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>367</v>
+        <v>315</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>368</v>
+        <v>316</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>369</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>43</v>
+        <v>1436</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>370</v>
+        <v>318</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>371</v>
+        <v>319</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>372</v>
+        <v>320</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>45</v>
+        <v>1437</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>374</v>
+        <v>322</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>375</v>
+        <v>323</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>376</v>
+        <v>324</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>377</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>47</v>
+        <v>1438</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>378</v>
+        <v>326</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>379</v>
+        <v>327</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>49</v>
+        <v>1439</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>382</v>
+        <v>330</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>383</v>
+        <v>331</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>384</v>
+        <v>332</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>51</v>
+        <v>1440</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>386</v>
+        <v>334</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>387</v>
+        <v>335</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>388</v>
+        <v>336</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>53</v>
+        <v>1441</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>391</v>
+        <v>339</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>392</v>
+        <v>340</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>393</v>
+        <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>55</v>
+        <v>1442</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>395</v>
+        <v>343</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>397</v>
+        <v>345</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>57</v>
+        <v>1443</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>398</v>
+        <v>346</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>399</v>
+        <v>347</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>400</v>
+        <v>348</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>401</v>
+        <v>349</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>1444</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>402</v>
+        <v>350</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>403</v>
+        <v>351</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>404</v>
+        <v>352</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>61</v>
+        <v>1445</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>406</v>
+        <v>354</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>407</v>
+        <v>355</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>408</v>
+        <v>356</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>409</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>63</v>
+        <v>1446</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>410</v>
+        <v>358</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>411</v>
+        <v>359</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>412</v>
+        <v>360</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>413</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>65</v>
+        <v>1447</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>414</v>
+        <v>362</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>415</v>
+        <v>363</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>416</v>
+        <v>364</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>417</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>67</v>
+        <v>1448</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>418</v>
+        <v>366</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>419</v>
+        <v>367</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>69</v>
+        <v>1415</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>422</v>
+        <v>370</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>423</v>
+        <v>371</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>424</v>
+        <v>372</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>71</v>
+        <v>1414</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>426</v>
+        <v>374</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>427</v>
+        <v>375</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>428</v>
+        <v>376</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>73</v>
+        <v>1413</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>430</v>
+        <v>378</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>431</v>
+        <v>379</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>432</v>
+        <v>380</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>433</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>434</v>
+        <v>382</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>435</v>
+        <v>383</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>436</v>
+        <v>384</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>443</v>
+        <v>391</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>444</v>
+        <v>392</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>446</v>
+        <v>394</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>447</v>
+        <v>395</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>449</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>450</v>
+        <v>398</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>451</v>
+        <v>399</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>452</v>
+        <v>400</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>85</v>
+        <v>1412</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>454</v>
+        <v>402</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>455</v>
+        <v>403</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>456</v>
+        <v>404</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>457</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>458</v>
+        <v>406</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>459</v>
+        <v>407</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>460</v>
+        <v>408</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>461</v>
+        <v>409</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>462</v>
+        <v>410</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>463</v>
+        <v>411</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>464</v>
+        <v>412</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>465</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>466</v>
+        <v>414</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>467</v>
+        <v>415</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>469</v>
+        <v>417</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>470</v>
+        <v>418</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>471</v>
+        <v>419</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>472</v>
+        <v>420</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>473</v>
+        <v>421</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>95</v>
+        <v>1411</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>474</v>
+        <v>422</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>475</v>
+        <v>423</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>476</v>
+        <v>424</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>478</v>
+        <v>426</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>479</v>
+        <v>427</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>480</v>
+        <v>428</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>482</v>
+        <v>430</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>483</v>
+        <v>431</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>484</v>
+        <v>432</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>486</v>
+        <v>434</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>487</v>
+        <v>435</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>488</v>
+        <v>436</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>490</v>
+        <v>438</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>491</v>
+        <v>439</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>492</v>
+        <v>440</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>494</v>
+        <v>442</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>495</v>
+        <v>443</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>496</v>
+        <v>444</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>497</v>
+        <v>445</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>107</v>
+        <v>1410</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>498</v>
+        <v>446</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>499</v>
+        <v>447</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>500</v>
+        <v>448</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>501</v>
+        <v>449</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>502</v>
+        <v>450</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>503</v>
+        <v>451</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>504</v>
+        <v>452</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>505</v>
+        <v>453</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>506</v>
+        <v>454</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>507</v>
+        <v>455</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>508</v>
+        <v>456</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>509</v>
+        <v>457</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>510</v>
+        <v>458</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>511</v>
+        <v>459</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>512</v>
+        <v>460</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>514</v>
+        <v>462</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>515</v>
+        <v>463</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>517</v>
+        <v>464</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>518</v>
+        <v>466</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>519</v>
+        <v>467</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>520</v>
+        <v>468</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>521</v>
+        <v>469</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>522</v>
+        <v>470</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>523</v>
+        <v>471</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>526</v>
+        <v>474</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>527</v>
+        <v>475</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>528</v>
+        <v>476</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>530</v>
+        <v>478</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>531</v>
+        <v>479</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>532</v>
+        <v>480</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>534</v>
+        <v>482</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>535</v>
+        <v>483</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>536</v>
+        <v>484</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>537</v>
+        <v>485</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>538</v>
+        <v>486</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>539</v>
+        <v>487</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>540</v>
+        <v>488</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>541</v>
+        <v>489</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>542</v>
+        <v>490</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>543</v>
+        <v>491</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>544</v>
+        <v>492</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>545</v>
+        <v>493</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>546</v>
+        <v>494</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>547</v>
+        <v>495</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>548</v>
+        <v>496</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>549</v>
+        <v>497</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>133</v>
+        <v>1409</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>550</v>
+        <v>498</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>551</v>
+        <v>499</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>552</v>
+        <v>500</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>553</v>
+        <v>501</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>554</v>
+        <v>502</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>555</v>
+        <v>503</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>556</v>
+        <v>504</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>557</v>
+        <v>505</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>558</v>
+        <v>506</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>559</v>
+        <v>507</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>560</v>
+        <v>508</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>561</v>
+        <v>509</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>562</v>
+        <v>510</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>563</v>
+        <v>511</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>564</v>
+        <v>512</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>566</v>
+        <v>514</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>567</v>
+        <v>515</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>568</v>
+        <v>516</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>569</v>
+        <v>517</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>570</v>
+        <v>518</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>571</v>
+        <v>519</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>572</v>
+        <v>520</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>574</v>
+        <v>522</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>575</v>
+        <v>523</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>576</v>
+        <v>524</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>577</v>
+        <v>525</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>578</v>
+        <v>526</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>579</v>
+        <v>527</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>580</v>
+        <v>528</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>581</v>
+        <v>529</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>582</v>
+        <v>530</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>583</v>
+        <v>531</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>584</v>
+        <v>532</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>586</v>
+        <v>534</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>587</v>
+        <v>535</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>588</v>
+        <v>536</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>589</v>
+        <v>537</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>590</v>
+        <v>538</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>591</v>
+        <v>539</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>592</v>
+        <v>540</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>155</v>
+        <v>1408</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>594</v>
+        <v>542</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>595</v>
+        <v>543</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>596</v>
+        <v>544</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>598</v>
+        <v>546</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>599</v>
+        <v>547</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>600</v>
+        <v>548</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>602</v>
+        <v>550</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>603</v>
+        <v>551</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>604</v>
+        <v>552</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>606</v>
+        <v>554</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>607</v>
+        <v>555</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>608</v>
+        <v>556</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>610</v>
+        <v>558</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>611</v>
+        <v>559</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>612</v>
+        <v>560</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>613</v>
+        <v>561</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>614</v>
+        <v>562</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>615</v>
+        <v>563</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>616</v>
+        <v>564</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>618</v>
+        <v>566</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>619</v>
+        <v>567</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>620</v>
+        <v>568</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>622</v>
+        <v>570</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>623</v>
+        <v>571</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>624</v>
+        <v>572</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>626</v>
+        <v>574</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>627</v>
+        <v>575</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>628</v>
+        <v>576</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>630</v>
+        <v>578</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>631</v>
+        <v>579</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>632</v>
+        <v>580</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>174</v>
+        <v>1407</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>634</v>
+        <v>582</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>635</v>
+        <v>583</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>636</v>
+        <v>584</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>637</v>
+        <v>585</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>638</v>
+        <v>586</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>639</v>
+        <v>587</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>640</v>
+        <v>588</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>642</v>
+        <v>590</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>643</v>
+        <v>591</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>644</v>
+        <v>592</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>645</v>
+        <v>593</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>646</v>
+        <v>594</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>647</v>
+        <v>595</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>648</v>
+        <v>596</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>650</v>
+        <v>598</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>651</v>
+        <v>599</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>652</v>
+        <v>600</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>654</v>
+        <v>602</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>655</v>
+        <v>603</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>656</v>
+        <v>604</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>657</v>
+        <v>605</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>658</v>
+        <v>606</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>659</v>
+        <v>607</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>660</v>
+        <v>608</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>187</v>
+        <v>1406</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>662</v>
+        <v>610</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>663</v>
+        <v>611</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>664</v>
+        <v>612</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>665</v>
+        <v>613</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>666</v>
+        <v>614</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>667</v>
+        <v>615</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>668</v>
+        <v>616</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>670</v>
+        <v>618</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>671</v>
+        <v>619</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>672</v>
+        <v>620</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>673</v>
+        <v>621</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>193</v>
+        <v>1405</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>674</v>
+        <v>622</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>675</v>
+        <v>623</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>676</v>
+        <v>624</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>678</v>
+        <v>626</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>679</v>
+        <v>627</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>680</v>
+        <v>628</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>681</v>
+        <v>629</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>682</v>
+        <v>630</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>683</v>
+        <v>631</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>684</v>
+        <v>632</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>686</v>
+        <v>634</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>687</v>
+        <v>635</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>688</v>
+        <v>636</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>690</v>
+        <v>638</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>691</v>
+        <v>639</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>692</v>
+        <v>640</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>693</v>
+        <v>641</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>694</v>
+        <v>642</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>695</v>
+        <v>643</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>696</v>
+        <v>644</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>698</v>
+        <v>646</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>699</v>
+        <v>647</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>700</v>
+        <v>648</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>207</v>
+        <v>1404</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>702</v>
+        <v>650</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>703</v>
+        <v>651</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>704</v>
+        <v>652</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>706</v>
+        <v>654</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>707</v>
+        <v>655</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>708</v>
+        <v>656</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>710</v>
+        <v>658</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>711</v>
+        <v>659</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>712</v>
+        <v>660</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>714</v>
+        <v>662</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>715</v>
+        <v>663</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>716</v>
+        <v>664</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>718</v>
+        <v>666</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>719</v>
+        <v>667</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>720</v>
+        <v>668</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>722</v>
+        <v>670</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>723</v>
+        <v>671</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>724</v>
+        <v>672</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>726</v>
+        <v>674</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>727</v>
+        <v>675</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>728</v>
+        <v>676</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>729</v>
+        <v>677</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>730</v>
+        <v>678</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>731</v>
+        <v>679</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>732</v>
+        <v>680</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>734</v>
+        <v>682</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>735</v>
+        <v>683</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>736</v>
+        <v>684</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>737</v>
+        <v>685</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>738</v>
+        <v>686</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>739</v>
+        <v>687</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>740</v>
+        <v>688</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>741</v>
+        <v>689</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>742</v>
+        <v>690</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>743</v>
+        <v>691</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>744</v>
+        <v>692</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>746</v>
+        <v>694</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>747</v>
+        <v>695</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>748</v>
+        <v>696</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>749</v>
+        <v>697</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>230</v>
+        <v>1403</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>750</v>
+        <v>698</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>751</v>
+        <v>699</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>752</v>
+        <v>700</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>753</v>
+        <v>701</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>754</v>
+        <v>702</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>755</v>
+        <v>703</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>756</v>
+        <v>704</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>758</v>
+        <v>706</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>759</v>
+        <v>707</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>760</v>
+        <v>708</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>762</v>
+        <v>710</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>763</v>
+        <v>711</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>764</v>
+        <v>712</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>766</v>
+        <v>714</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>767</v>
+        <v>715</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>768</v>
+        <v>716</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>769</v>
+        <v>717</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>770</v>
+        <v>718</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>771</v>
+        <v>719</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>772</v>
+        <v>720</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>774</v>
+        <v>722</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>775</v>
+        <v>723</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>776</v>
+        <v>724</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>778</v>
+        <v>726</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>779</v>
+        <v>727</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>780</v>
+        <v>728</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>782</v>
+        <v>730</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>783</v>
+        <v>731</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>784</v>
+        <v>732</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>785</v>
+        <v>733</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>786</v>
+        <v>734</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>787</v>
+        <v>735</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>788</v>
+        <v>736</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>790</v>
+        <v>738</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>791</v>
+        <v>739</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>792</v>
+        <v>740</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>793</v>
+        <v>741</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>794</v>
+        <v>742</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>795</v>
+        <v>743</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>796</v>
+        <v>744</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>798</v>
+        <v>746</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>799</v>
+        <v>747</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>800</v>
+        <v>748</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>801</v>
+        <v>749</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>802</v>
+        <v>750</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>803</v>
+        <v>751</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>804</v>
+        <v>752</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>805</v>
+        <v>753</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>806</v>
+        <v>754</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>807</v>
+        <v>755</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>808</v>
+        <v>756</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>810</v>
+        <v>758</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>811</v>
+        <v>759</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>812</v>
+        <v>760</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>814</v>
+        <v>762</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>815</v>
+        <v>763</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>816</v>
+        <v>764</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>264</v>
+        <v>1402</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>818</v>
+        <v>766</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>819</v>
+        <v>767</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>820</v>
+        <v>768</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>821</v>
+        <v>769</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>822</v>
+        <v>770</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>823</v>
+        <v>771</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>824</v>
+        <v>772</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>826</v>
+        <v>774</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>827</v>
+        <v>775</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>828</v>
+        <v>776</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>829</v>
+        <v>777</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>830</v>
+        <v>778</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>831</v>
+        <v>779</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>832</v>
+        <v>780</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>834</v>
+        <v>782</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>835</v>
+        <v>783</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>836</v>
+        <v>784</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>838</v>
+        <v>786</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>839</v>
+        <v>787</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>840</v>
+        <v>788</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>842</v>
+        <v>790</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>843</v>
+        <v>791</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>844</v>
+        <v>792</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>845</v>
+        <v>793</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="C141" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>844</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="F151" s="6" t="s">
         <v>846</v>
       </c>
-      <c r="D141" s="1" t="s">
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="B152" s="6" t="s">
         <v>847</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="C152" s="6" t="s">
         <v>848</v>
       </c>
-      <c r="F141" s="2" t="s">
+      <c r="D152" s="6" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C142" s="4" t="s">
+      <c r="E152" s="6" t="s">
         <v>850</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="F152" s="6" t="s">
         <v>851</v>
       </c>
-      <c r="E142" s="1" t="s">
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="6" t="s">
+        <v>866</v>
+      </c>
+      <c r="B153" s="6" t="s">
         <v>852</v>
       </c>
-      <c r="F142" s="2" t="s">
+      <c r="C153" s="6" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C143" s="4" t="s">
+      <c r="D153" s="6" t="s">
         <v>854</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="E153" s="6" t="s">
         <v>855</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="F153" s="6" t="s">
         <v>856</v>
       </c>
-      <c r="F143" s="2" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>858</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>866</v>
-      </c>
-      <c r="D146" s="1" t="s">
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="6" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B154" s="6" t="s">
         <v>867</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="C154" s="6" t="s">
         <v>868</v>
       </c>
-      <c r="F146" s="2" t="s">
+      <c r="D154" s="6" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C147" s="4" t="s">
+      <c r="E154" s="6" t="s">
         <v>870</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="F154" s="6" t="s">
         <v>871</v>
       </c>
-      <c r="E147" s="1" t="s">
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B155" s="6" t="s">
         <v>872</v>
       </c>
-      <c r="F147" s="2" t="s">
+      <c r="C155" s="6" t="s">
         <v>873</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>883</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" s="6" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>912</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="6" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="6" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>922</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" s="6" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>939</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="6" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>941</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>942</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>946</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>948</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>949</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="6" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>952</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>953</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="6" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>956</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>957</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>958</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>959</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="6" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>967</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>969</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="6" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="6" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>976</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>978</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>979</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="6" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>981</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>982</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>983</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>984</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="6" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="6" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>992</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>996</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F182" s="6" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="6" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F184" s="6" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" s="6" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="6" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="6" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>992</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" s="6" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F189" s="6" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E193" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F193" s="6" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="6" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E195" s="6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="6" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="6" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F200" s="6" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" s="6" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E201" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" s="6" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E202" s="6" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A203" s="6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E203" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" s="6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="6" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E205" s="6" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F205" s="6" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="6" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E206" s="6" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" s="6" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F207" s="6" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" s="6" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E208" s="6" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A209" s="6" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E209" s="6" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F209" s="6" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A210" s="6" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E210" s="6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F210" s="6" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A211" s="6" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F211" s="6" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A212" s="6" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F212" s="6" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A213" s="6" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F213" s="6" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A214" s="6" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E214" s="6" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F214" s="6" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A215" s="6" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E215" s="6" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F215" s="6" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A216" s="6" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E216" s="6" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F216" s="6" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A217" s="6" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E217" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F217" s="6" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A218" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F218" s="6" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A219" s="6" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E219" s="6" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F219" s="6" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A220" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F220" s="6" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A221" s="6" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E221" s="6" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F221" s="6" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A222" s="6" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E222" s="6" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F222" s="6" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A223" s="6" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E223" s="6" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A224" s="6" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E224" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F224" s="6" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A225" s="6" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E225" s="6" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F225" s="6" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A226" s="6" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E226" s="6" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F226" s="6" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="6" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E227" s="6" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F227" s="6" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A228" s="6" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E228" s="6" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F228" s="6" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A229" s="6" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E229" s="6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F229" s="6" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A230" s="6" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E230" s="6" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F230" s="6" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A231" s="6" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E231" s="6" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F231" s="6" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A232" s="6" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E232" s="6" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F232" s="6" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A233" s="6" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E233" s="6" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F233" s="6" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A234" s="6" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D234" s="6" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E234" s="6" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F234" s="6" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="6" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E235" s="6" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F235" s="6" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A236" s="6" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E236" s="6" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F236" s="6" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A237" s="6" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E237" s="6" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F237" s="6" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A238" s="6" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E238" s="6" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F238" s="6" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A239" s="6" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E239" s="6" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F239" s="6" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A240" s="6" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E240" s="6" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F240" s="6" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A241" s="6" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E241" s="6" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F241" s="6" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A242" s="6" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F242" s="6" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A243" s="6" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E243" s="6" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F243" s="6" t="s">
+        <v>1382</v>
       </c>
     </row>
   </sheetData>
